--- a/BackTest/2019-10-19 BackTest BSV.xlsx
+++ b/BackTest/2019-10-19 BackTest BSV.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2200</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L12" t="n">
         <v>108390</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2300</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>10</v>
+      </c>
       <c r="L13" t="n">
         <v>108380</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2500</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-29.41176470588236</v>
+      </c>
       <c r="L14" t="n">
         <v>108380</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2600</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-22.22222222222222</v>
+      </c>
       <c r="L15" t="n">
         <v>108340</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2600</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-22.22222222222222</v>
+      </c>
       <c r="L16" t="n">
         <v>108300</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2700</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-12.5</v>
+      </c>
       <c r="L17" t="n">
         <v>108250</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2800</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-12.5</v>
+      </c>
       <c r="L18" t="n">
         <v>108220</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3300</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>108150</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3300</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-75</v>
+      </c>
       <c r="L20" t="n">
         <v>108080</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3400</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-66.66666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>107950</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3500</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-66.66666666666666</v>
+      </c>
       <c r="L22" t="n">
         <v>107880</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3500</v>
       </c>
       <c r="K23" t="n">
-        <v>-25.71428571428571</v>
+        <v>-60</v>
       </c>
       <c r="L23" t="n">
         <v>107800</v>
@@ -1466,7 +1488,7 @@
         <v>3600</v>
       </c>
       <c r="K24" t="n">
-        <v>-21.21212121212121</v>
+        <v>-80</v>
       </c>
       <c r="L24" t="n">
         <v>107730</v>
@@ -1515,7 +1537,7 @@
         <v>4000</v>
       </c>
       <c r="K25" t="n">
-        <v>-50</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L25" t="n">
         <v>107610</v>
@@ -1564,7 +1586,7 @@
         <v>4100</v>
       </c>
       <c r="K26" t="n">
-        <v>-51.51515151515152</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L26" t="n">
         <v>107480</v>
@@ -1613,7 +1635,7 @@
         <v>4200</v>
       </c>
       <c r="K27" t="n">
-        <v>-47.05882352941176</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L27" t="n">
         <v>107370</v>
@@ -1662,7 +1684,7 @@
         <v>4200</v>
       </c>
       <c r="K28" t="n">
-        <v>-41.93548387096774</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L28" t="n">
         <v>107270</v>
@@ -1711,7 +1733,7 @@
         <v>4300</v>
       </c>
       <c r="K29" t="n">
-        <v>-41.93548387096774</v>
+        <v>-60</v>
       </c>
       <c r="L29" t="n">
         <v>107210</v>
@@ -1760,7 +1782,7 @@
         <v>4400</v>
       </c>
       <c r="K30" t="n">
-        <v>-37.5</v>
+        <v>-40</v>
       </c>
       <c r="L30" t="n">
         <v>107160</v>
@@ -1809,7 +1831,7 @@
         <v>4700</v>
       </c>
       <c r="K31" t="n">
-        <v>-46.66666666666666</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L31" t="n">
         <v>107150</v>
@@ -1860,7 +1882,7 @@
         <v>4900</v>
       </c>
       <c r="K32" t="n">
-        <v>-40.74074074074074</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L32" t="n">
         <v>107110</v>
@@ -1911,7 +1933,7 @@
         <v>5000</v>
       </c>
       <c r="K33" t="n">
-        <v>-48.14814814814815</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L33" t="n">
         <v>107060</v>
@@ -1962,7 +1984,7 @@
         <v>5000</v>
       </c>
       <c r="K34" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>107020</v>
@@ -2013,7 +2035,7 @@
         <v>5200</v>
       </c>
       <c r="K35" t="n">
-        <v>-53.84615384615385</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L35" t="n">
         <v>107000</v>
@@ -2064,7 +2086,7 @@
         <v>5500</v>
       </c>
       <c r="K36" t="n">
-        <v>-58.62068965517241</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L36" t="n">
         <v>106960</v>
@@ -2115,7 +2137,7 @@
         <v>5800</v>
       </c>
       <c r="K37" t="n">
-        <v>-41.93548387096774</v>
+        <v>-12.5</v>
       </c>
       <c r="L37" t="n">
         <v>106940</v>
@@ -2166,7 +2188,7 @@
         <v>6000</v>
       </c>
       <c r="K38" t="n">
-        <v>-43.75</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L38" t="n">
         <v>106900</v>
@@ -2217,7 +2239,7 @@
         <v>6000</v>
       </c>
       <c r="K39" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L39" t="n">
         <v>106870</v>
@@ -2268,7 +2290,7 @@
         <v>6000</v>
       </c>
       <c r="K40" t="n">
-        <v>-33.33333333333333</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L40" t="n">
         <v>106830</v>
@@ -2319,7 +2341,7 @@
         <v>6400</v>
       </c>
       <c r="K41" t="n">
-        <v>-13.33333333333333</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L41" t="n">
         <v>106800</v>
@@ -2370,7 +2392,7 @@
         <v>6500</v>
       </c>
       <c r="K42" t="n">
-        <v>-13.33333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L42" t="n">
         <v>106800</v>
@@ -2421,7 +2443,7 @@
         <v>6500</v>
       </c>
       <c r="K43" t="n">
-        <v>-13.33333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L43" t="n">
         <v>106810</v>
@@ -2472,7 +2494,7 @@
         <v>6500</v>
       </c>
       <c r="K44" t="n">
-        <v>-10.3448275862069</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L44" t="n">
         <v>106820</v>
@@ -2523,7 +2545,7 @@
         <v>6900</v>
       </c>
       <c r="K45" t="n">
-        <v>17.24137931034483</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L45" t="n">
         <v>106890</v>
@@ -2574,7 +2596,7 @@
         <v>6900</v>
       </c>
       <c r="K46" t="n">
-        <v>21.42857142857143</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L46" t="n">
         <v>106990</v>
@@ -2625,7 +2647,7 @@
         <v>6900</v>
       </c>
       <c r="K47" t="n">
-        <v>18.51851851851852</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>107060</v>
@@ -2676,7 +2698,7 @@
         <v>6900</v>
       </c>
       <c r="K48" t="n">
-        <v>18.51851851851852</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>107150</v>
@@ -2727,7 +2749,7 @@
         <v>6900</v>
       </c>
       <c r="K49" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>107240</v>
@@ -2778,7 +2800,7 @@
         <v>6900</v>
       </c>
       <c r="K50" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>107330</v>
@@ -2829,7 +2851,7 @@
         <v>6900</v>
       </c>
       <c r="K51" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>107380</v>
@@ -2880,7 +2902,7 @@
         <v>6900</v>
       </c>
       <c r="K52" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>107420</v>
@@ -2931,7 +2953,7 @@
         <v>6900</v>
       </c>
       <c r="K53" t="n">
-        <v>26.31578947368421</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>107460</v>
@@ -2981,9 +3003,7 @@
       <c r="J54" t="n">
         <v>6900</v>
       </c>
-      <c r="K54" t="n">
-        <v>26.31578947368421</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>107500</v>
       </c>
@@ -3033,7 +3053,7 @@
         <v>7100</v>
       </c>
       <c r="K55" t="n">
-        <v>26.31578947368421</v>
+        <v>-100</v>
       </c>
       <c r="L55" t="n">
         <v>107480</v>
@@ -3084,7 +3104,7 @@
         <v>7300</v>
       </c>
       <c r="K56" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>107480</v>
@@ -3135,7 +3155,7 @@
         <v>7300</v>
       </c>
       <c r="K57" t="n">
-        <v>46.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>107480</v>
@@ -3186,7 +3206,7 @@
         <v>7500</v>
       </c>
       <c r="K58" t="n">
-        <v>73.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>107500</v>
@@ -3237,7 +3257,7 @@
         <v>7600</v>
       </c>
       <c r="K59" t="n">
-        <v>62.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L59" t="n">
         <v>107510</v>
@@ -3288,7 +3308,7 @@
         <v>8000</v>
       </c>
       <c r="K60" t="n">
-        <v>30</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L60" t="n">
         <v>107480</v>
@@ -3339,7 +3359,7 @@
         <v>8400</v>
       </c>
       <c r="K61" t="n">
-        <v>30</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L61" t="n">
         <v>107490</v>
@@ -3390,7 +3410,7 @@
         <v>8500</v>
       </c>
       <c r="K62" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="L62" t="n">
         <v>107510</v>
@@ -3441,7 +3461,7 @@
         <v>8800</v>
       </c>
       <c r="K63" t="n">
-        <v>13.04347826086956</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L63" t="n">
         <v>107500</v>
@@ -3492,7 +3512,7 @@
         <v>9200</v>
       </c>
       <c r="K64" t="n">
-        <v>25.92592592592592</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L64" t="n">
         <v>107530</v>
@@ -3543,7 +3563,7 @@
         <v>9200</v>
       </c>
       <c r="K65" t="n">
-        <v>13.04347826086956</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L65" t="n">
         <v>107580</v>
@@ -3594,7 +3614,7 @@
         <v>9400</v>
       </c>
       <c r="K66" t="n">
-        <v>4</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L66" t="n">
         <v>107590</v>
@@ -3645,7 +3665,7 @@
         <v>9700</v>
       </c>
       <c r="K67" t="n">
-        <v>14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L67" t="n">
         <v>107630</v>
@@ -3696,7 +3716,7 @@
         <v>9800</v>
       </c>
       <c r="K68" t="n">
-        <v>17.24137931034483</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L68" t="n">
         <v>107660</v>
@@ -3747,7 +3767,7 @@
         <v>10200</v>
       </c>
       <c r="K69" t="n">
-        <v>3.03030303030303</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L69" t="n">
         <v>107660</v>
@@ -3798,7 +3818,7 @@
         <v>10500</v>
       </c>
       <c r="K70" t="n">
-        <v>-5.555555555555555</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L70" t="n">
         <v>107670</v>
@@ -3849,7 +3869,7 @@
         <v>10500</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.555555555555555</v>
+        <v>-20</v>
       </c>
       <c r="L71" t="n">
         <v>107640</v>
@@ -3900,7 +3920,7 @@
         <v>10500</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.555555555555555</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L72" t="n">
         <v>107600</v>
@@ -3951,7 +3971,7 @@
         <v>10600</v>
       </c>
       <c r="K73" t="n">
-        <v>-8.108108108108109</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L73" t="n">
         <v>107580</v>
@@ -4002,7 +4022,7 @@
         <v>10600</v>
       </c>
       <c r="K74" t="n">
-        <v>-8.108108108108109</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L74" t="n">
         <v>107520</v>
@@ -4053,7 +4073,7 @@
         <v>11100</v>
       </c>
       <c r="K75" t="n">
-        <v>10</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L75" t="n">
         <v>107510</v>
@@ -4104,7 +4124,7 @@
         <v>11200</v>
       </c>
       <c r="K76" t="n">
-        <v>2.564102564102564</v>
+        <v>-20</v>
       </c>
       <c r="L76" t="n">
         <v>107510</v>
@@ -4155,7 +4175,7 @@
         <v>11700</v>
       </c>
       <c r="K77" t="n">
-        <v>-9.090909090909092</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L77" t="n">
         <v>107430</v>
@@ -4206,7 +4226,7 @@
         <v>12000</v>
       </c>
       <c r="K78" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L78" t="n">
         <v>107370</v>
@@ -4257,7 +4277,7 @@
         <v>12100</v>
       </c>
       <c r="K79" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>107340</v>
@@ -4308,7 +4328,7 @@
         <v>12200</v>
       </c>
       <c r="K80" t="n">
-        <v>4.761904761904762</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L80" t="n">
         <v>107350</v>
@@ -4359,7 +4379,7 @@
         <v>12500</v>
       </c>
       <c r="K81" t="n">
-        <v>-12.19512195121951</v>
+        <v>-10</v>
       </c>
       <c r="L81" t="n">
         <v>107330</v>
@@ -4410,7 +4430,7 @@
         <v>12600</v>
       </c>
       <c r="K82" t="n">
-        <v>-12.19512195121951</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>107320</v>
@@ -4461,7 +4481,7 @@
         <v>12900</v>
       </c>
       <c r="K83" t="n">
-        <v>2.439024390243902</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L83" t="n">
         <v>107350</v>
@@ -4512,7 +4532,7 @@
         <v>13000</v>
       </c>
       <c r="K84" t="n">
-        <v>-10.52631578947368</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L84" t="n">
         <v>107370</v>
@@ -4563,7 +4583,7 @@
         <v>13300</v>
       </c>
       <c r="K85" t="n">
-        <v>-17.07317073170732</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L85" t="n">
         <v>107310</v>
@@ -4614,7 +4634,7 @@
         <v>13300</v>
       </c>
       <c r="K86" t="n">
-        <v>-12.82051282051282</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>107260</v>
@@ -4665,7 +4685,7 @@
         <v>13400</v>
       </c>
       <c r="K87" t="n">
-        <v>-24.32432432432433</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L87" t="n">
         <v>107250</v>
@@ -4716,7 +4736,7 @@
         <v>13800</v>
       </c>
       <c r="K88" t="n">
-        <v>-15</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L88" t="n">
         <v>107250</v>
@@ -4767,7 +4787,7 @@
         <v>13900</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.702702702702703</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L89" t="n">
         <v>107270</v>
@@ -4818,7 +4838,7 @@
         <v>14200</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.702702702702703</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L90" t="n">
         <v>107250</v>
@@ -4869,7 +4889,7 @@
         <v>14300</v>
       </c>
       <c r="K91" t="n">
-        <v>-5.263157894736842</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L91" t="n">
         <v>107250</v>
@@ -4920,7 +4940,7 @@
         <v>14400</v>
       </c>
       <c r="K92" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>107230</v>
@@ -4971,7 +4991,7 @@
         <v>14400</v>
       </c>
       <c r="K93" t="n">
-        <v>-5.263157894736842</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L93" t="n">
         <v>107180</v>
@@ -5022,7 +5042,7 @@
         <v>14600</v>
       </c>
       <c r="K94" t="n">
-        <v>-10</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L94" t="n">
         <v>107120</v>
@@ -5073,7 +5093,7 @@
         <v>14700</v>
       </c>
       <c r="K95" t="n">
-        <v>-27.77777777777778</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L95" t="n">
         <v>107080</v>
@@ -5124,7 +5144,7 @@
         <v>14900</v>
       </c>
       <c r="K96" t="n">
-        <v>-29.72972972972973</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>107020</v>
@@ -5175,7 +5195,7 @@
         <v>15000</v>
       </c>
       <c r="K97" t="n">
-        <v>-15.15151515151515</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L97" t="n">
         <v>106980</v>
@@ -5226,7 +5246,7 @@
         <v>15300</v>
       </c>
       <c r="K98" t="n">
-        <v>-33.33333333333333</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L98" t="n">
         <v>106870</v>
@@ -5277,7 +5297,7 @@
         <v>15500</v>
       </c>
       <c r="K99" t="n">
-        <v>-23.52941176470588</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L99" t="n">
         <v>106770</v>
@@ -5328,7 +5348,7 @@
         <v>15800</v>
       </c>
       <c r="K100" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L100" t="n">
         <v>106670</v>
@@ -5379,7 +5399,7 @@
         <v>16100</v>
       </c>
       <c r="K101" t="n">
-        <v>-16.66666666666666</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L101" t="n">
         <v>106610</v>
@@ -5430,7 +5450,7 @@
         <v>16500</v>
       </c>
       <c r="K102" t="n">
-        <v>-28.2051282051282</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L102" t="n">
         <v>106520</v>
@@ -5481,7 +5501,7 @@
         <v>16900</v>
       </c>
       <c r="K103" t="n">
-        <v>-25</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L103" t="n">
         <v>106470</v>
@@ -5532,7 +5552,7 @@
         <v>17000</v>
       </c>
       <c r="K104" t="n">
-        <v>-25</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L104" t="n">
         <v>106430</v>
@@ -5583,7 +5603,7 @@
         <v>17300</v>
       </c>
       <c r="K105" t="n">
-        <v>-25</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L105" t="n">
         <v>106370</v>
@@ -5634,7 +5654,7 @@
         <v>17400</v>
       </c>
       <c r="K106" t="n">
-        <v>-21.95121951219512</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L106" t="n">
         <v>106340</v>
@@ -5685,7 +5705,7 @@
         <v>17400</v>
       </c>
       <c r="K107" t="n">
-        <v>-20</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L107" t="n">
         <v>106300</v>
@@ -5736,7 +5756,7 @@
         <v>17400</v>
       </c>
       <c r="K108" t="n">
-        <v>-33.33333333333333</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L108" t="n">
         <v>106290</v>
@@ -5787,7 +5807,7 @@
         <v>17500</v>
       </c>
       <c r="K109" t="n">
-        <v>-33.33333333333333</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L109" t="n">
         <v>106270</v>
@@ -5838,7 +5858,7 @@
         <v>17600</v>
       </c>
       <c r="K110" t="n">
-        <v>-23.52941176470588</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L110" t="n">
         <v>106290</v>
@@ -5889,7 +5909,7 @@
         <v>17600</v>
       </c>
       <c r="K111" t="n">
-        <v>-21.21212121212121</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L111" t="n">
         <v>106280</v>
@@ -5940,7 +5960,7 @@
         <v>17800</v>
       </c>
       <c r="K112" t="n">
-        <v>-23.52941176470588</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>106290</v>
@@ -5991,7 +6011,7 @@
         <v>17900</v>
       </c>
       <c r="K113" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L113" t="n">
         <v>106270</v>
@@ -6042,7 +6062,7 @@
         <v>18000</v>
       </c>
       <c r="K114" t="n">
-        <v>-11.76470588235294</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L114" t="n">
         <v>106270</v>
@@ -6093,7 +6113,7 @@
         <v>18100</v>
       </c>
       <c r="K115" t="n">
-        <v>-11.76470588235294</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L115" t="n">
         <v>106290</v>
@@ -6144,7 +6164,7 @@
         <v>18300</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>106320</v>
@@ -6195,7 +6215,7 @@
         <v>18400</v>
       </c>
       <c r="K117" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>106340</v>
@@ -6246,7 +6266,7 @@
         <v>18500</v>
       </c>
       <c r="K118" t="n">
-        <v>6.25</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
         <v>106370</v>
@@ -6297,7 +6317,7 @@
         <v>18500</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L119" t="n">
         <v>106390</v>
@@ -6399,7 +6419,7 @@
         <v>18500</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L121" t="n">
         <v>106410</v>
@@ -6450,7 +6470,7 @@
         <v>18500</v>
       </c>
       <c r="K122" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>106440</v>
@@ -6501,7 +6521,7 @@
         <v>18600</v>
       </c>
       <c r="K123" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>106450</v>
@@ -6552,7 +6572,7 @@
         <v>18700</v>
       </c>
       <c r="K124" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>106460</v>
@@ -6603,7 +6623,7 @@
         <v>19000</v>
       </c>
       <c r="K125" t="n">
-        <v>41.17647058823529</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L125" t="n">
         <v>106510</v>
@@ -6654,7 +6674,7 @@
         <v>19300</v>
       </c>
       <c r="K126" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L126" t="n">
         <v>106510</v>
@@ -6705,7 +6725,7 @@
         <v>19400</v>
       </c>
       <c r="K127" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L127" t="n">
         <v>106510</v>
@@ -6756,7 +6776,7 @@
         <v>19500</v>
       </c>
       <c r="K128" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>106510</v>
@@ -6807,7 +6827,7 @@
         <v>19500</v>
       </c>
       <c r="K129" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>106510</v>
@@ -6858,7 +6878,7 @@
         <v>19600</v>
       </c>
       <c r="K130" t="n">
-        <v>10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L130" t="n">
         <v>106520</v>
@@ -6909,7 +6929,7 @@
         <v>19700</v>
       </c>
       <c r="K131" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>106520</v>
@@ -6960,7 +6980,7 @@
         <v>19800</v>
       </c>
       <c r="K132" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>106510</v>
@@ -7011,7 +7031,7 @@
         <v>19900</v>
       </c>
       <c r="K133" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>106520</v>
@@ -7062,7 +7082,7 @@
         <v>20000</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L134" t="n">
         <v>106510</v>
@@ -7113,7 +7133,7 @@
         <v>20200</v>
       </c>
       <c r="K135" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L135" t="n">
         <v>106490</v>
@@ -7164,7 +7184,7 @@
         <v>20200</v>
       </c>
       <c r="K136" t="n">
-        <v>5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L136" t="n">
         <v>106500</v>
@@ -7215,7 +7235,7 @@
         <v>20300</v>
       </c>
       <c r="K137" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>106510</v>
@@ -7266,7 +7286,7 @@
         <v>20400</v>
       </c>
       <c r="K138" t="n">
-        <v>5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L138" t="n">
         <v>106520</v>
@@ -7317,7 +7337,7 @@
         <v>20600</v>
       </c>
       <c r="K139" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L139" t="n">
         <v>106550</v>
@@ -7368,7 +7388,7 @@
         <v>20700</v>
       </c>
       <c r="K140" t="n">
-        <v>18.18181818181818</v>
+        <v>40</v>
       </c>
       <c r="L140" t="n">
         <v>106580</v>
@@ -7419,7 +7439,7 @@
         <v>20900</v>
       </c>
       <c r="K141" t="n">
-        <v>8.333333333333332</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L141" t="n">
         <v>106600</v>
@@ -7470,7 +7490,7 @@
         <v>21300</v>
       </c>
       <c r="K142" t="n">
-        <v>-7.142857142857142</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L142" t="n">
         <v>106590</v>
@@ -7521,7 +7541,7 @@
         <v>21400</v>
       </c>
       <c r="K143" t="n">
-        <v>-7.142857142857142</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L143" t="n">
         <v>106560</v>
@@ -7572,7 +7592,7 @@
         <v>21500</v>
       </c>
       <c r="K144" t="n">
-        <v>-14.28571428571428</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L144" t="n">
         <v>106530</v>
@@ -7623,7 +7643,7 @@
         <v>21800</v>
       </c>
       <c r="K145" t="n">
-        <v>-14.28571428571428</v>
+        <v>-12.5</v>
       </c>
       <c r="L145" t="n">
         <v>106510</v>
@@ -7674,7 +7694,7 @@
         <v>21800</v>
       </c>
       <c r="K146" t="n">
-        <v>-4</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L146" t="n">
         <v>106490</v>
@@ -7725,7 +7745,7 @@
         <v>21800</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L147" t="n">
         <v>106480</v>
@@ -7776,7 +7796,7 @@
         <v>22100</v>
       </c>
       <c r="K148" t="n">
-        <v>-15.38461538461539</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L148" t="n">
         <v>106430</v>
@@ -7827,7 +7847,7 @@
         <v>22400</v>
       </c>
       <c r="K149" t="n">
-        <v>-3.448275862068965</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L149" t="n">
         <v>106390</v>
@@ -7878,7 +7898,7 @@
         <v>22500</v>
       </c>
       <c r="K150" t="n">
-        <v>-10.3448275862069</v>
+        <v>-25</v>
       </c>
       <c r="L150" t="n">
         <v>106330</v>
@@ -7929,7 +7949,7 @@
         <v>22600</v>
       </c>
       <c r="K151" t="n">
-        <v>-3.448275862068965</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L151" t="n">
         <v>106300</v>
@@ -7980,7 +8000,7 @@
         <v>22900</v>
       </c>
       <c r="K152" t="n">
-        <v>9.67741935483871</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>106340</v>
@@ -8031,7 +8051,7 @@
         <v>22900</v>
       </c>
       <c r="K153" t="n">
-        <v>6.666666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L153" t="n">
         <v>106390</v>
@@ -8082,7 +8102,7 @@
         <v>23100</v>
       </c>
       <c r="K154" t="n">
-        <v>16.12903225806452</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L154" t="n">
         <v>106470</v>
@@ -8133,7 +8153,7 @@
         <v>23100</v>
       </c>
       <c r="K155" t="n">
-        <v>10.3448275862069</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L155" t="n">
         <v>106520</v>
@@ -8184,7 +8204,7 @@
         <v>23100</v>
       </c>
       <c r="K156" t="n">
-        <v>10.3448275862069</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L156" t="n">
         <v>106570</v>
@@ -8235,7 +8255,7 @@
         <v>23300</v>
       </c>
       <c r="K157" t="n">
-        <v>20</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L157" t="n">
         <v>106640</v>
@@ -8286,7 +8306,7 @@
         <v>23800</v>
       </c>
       <c r="K158" t="n">
-        <v>29.41176470588236</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L158" t="n">
         <v>106790</v>
@@ -8337,7 +8357,7 @@
         <v>23900</v>
       </c>
       <c r="K159" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
         <v>106920</v>
@@ -8388,7 +8408,7 @@
         <v>24200</v>
       </c>
       <c r="K160" t="n">
-        <v>14.28571428571428</v>
+        <v>62.5</v>
       </c>
       <c r="L160" t="n">
         <v>107030</v>
@@ -8439,7 +8459,7 @@
         <v>24300</v>
       </c>
       <c r="K161" t="n">
-        <v>23.52941176470588</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L161" t="n">
         <v>107140</v>
@@ -8490,7 +8510,7 @@
         <v>24300</v>
       </c>
       <c r="K162" t="n">
-        <v>40</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L162" t="n">
         <v>107220</v>
@@ -8541,7 +8561,7 @@
         <v>24300</v>
       </c>
       <c r="K163" t="n">
-        <v>44.82758620689656</v>
+        <v>50</v>
       </c>
       <c r="L163" t="n">
         <v>107300</v>
@@ -8592,7 +8612,7 @@
         <v>24400</v>
       </c>
       <c r="K164" t="n">
-        <v>51.72413793103448</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L164" t="n">
         <v>107370</v>
@@ -8643,7 +8663,7 @@
         <v>24400</v>
       </c>
       <c r="K165" t="n">
-        <v>46.15384615384615</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L165" t="n">
         <v>107440</v>
@@ -8694,7 +8714,7 @@
         <v>24500</v>
       </c>
       <c r="K166" t="n">
-        <v>40.74074074074074</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>107500</v>
@@ -8745,7 +8765,7 @@
         <v>24600</v>
       </c>
       <c r="K167" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>107550</v>
@@ -8796,7 +8816,7 @@
         <v>24700</v>
       </c>
       <c r="K168" t="n">
-        <v>53.84615384615385</v>
+        <v>-25</v>
       </c>
       <c r="L168" t="n">
         <v>107540</v>
@@ -8847,7 +8867,7 @@
         <v>24700</v>
       </c>
       <c r="K169" t="n">
-        <v>47.82608695652174</v>
+        <v>20</v>
       </c>
       <c r="L169" t="n">
         <v>107520</v>
@@ -8898,7 +8918,7 @@
         <v>24700</v>
       </c>
       <c r="K170" t="n">
-        <v>54.54545454545454</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>107530</v>
@@ -8949,7 +8969,7 @@
         <v>24700</v>
       </c>
       <c r="K171" t="n">
-        <v>52.38095238095239</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>107530</v>
@@ -9000,7 +9020,7 @@
         <v>24700</v>
       </c>
       <c r="K172" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>107530</v>
@@ -9051,7 +9071,7 @@
         <v>24800</v>
       </c>
       <c r="K173" t="n">
-        <v>47.36842105263158</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>107540</v>
@@ -9102,7 +9122,7 @@
         <v>25000</v>
       </c>
       <c r="K174" t="n">
-        <v>47.36842105263158</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L174" t="n">
         <v>107560</v>
@@ -9153,7 +9173,7 @@
         <v>25200</v>
       </c>
       <c r="K175" t="n">
-        <v>52.38095238095239</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L175" t="n">
         <v>107600</v>
@@ -9204,7 +9224,7 @@
         <v>25400</v>
       </c>
       <c r="K176" t="n">
-        <v>56.52173913043478</v>
+        <v>75</v>
       </c>
       <c r="L176" t="n">
         <v>107670</v>
@@ -9255,7 +9275,7 @@
         <v>25600</v>
       </c>
       <c r="K177" t="n">
-        <v>39.1304347826087</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L177" t="n">
         <v>107710</v>
@@ -9306,7 +9326,7 @@
         <v>25600</v>
       </c>
       <c r="K178" t="n">
-        <v>22.22222222222222</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L178" t="n">
         <v>107760</v>
@@ -9357,7 +9377,7 @@
         <v>26000</v>
       </c>
       <c r="K179" t="n">
-        <v>33.33333333333333</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L179" t="n">
         <v>107850</v>
@@ -9408,7 +9428,7 @@
         <v>26000</v>
       </c>
       <c r="K180" t="n">
-        <v>55.55555555555556</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L180" t="n">
         <v>107940</v>
@@ -9459,7 +9479,7 @@
         <v>26600</v>
       </c>
       <c r="K181" t="n">
-        <v>65.21739130434783</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L181" t="n">
         <v>108090</v>
@@ -9510,7 +9530,7 @@
         <v>26900</v>
       </c>
       <c r="K182" t="n">
-        <v>46.15384615384615</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L182" t="n">
         <v>108210</v>
@@ -9561,7 +9581,7 @@
         <v>27000</v>
       </c>
       <c r="K183" t="n">
-        <v>40.74074074074074</v>
+        <v>40</v>
       </c>
       <c r="L183" t="n">
         <v>108310</v>
@@ -9612,7 +9632,7 @@
         <v>27000</v>
       </c>
       <c r="K184" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>108390</v>
@@ -9663,7 +9683,7 @@
         <v>27100</v>
       </c>
       <c r="K185" t="n">
-        <v>33.33333333333333</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L185" t="n">
         <v>108440</v>
@@ -9714,7 +9734,7 @@
         <v>27200</v>
       </c>
       <c r="K186" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L186" t="n">
         <v>108460</v>
@@ -9765,7 +9785,7 @@
         <v>27200</v>
       </c>
       <c r="K187" t="n">
-        <v>30.76923076923077</v>
+        <v>25</v>
       </c>
       <c r="L187" t="n">
         <v>108500</v>
@@ -9816,7 +9836,7 @@
         <v>27400</v>
       </c>
       <c r="K188" t="n">
-        <v>25.92592592592592</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L188" t="n">
         <v>108520</v>
@@ -9867,7 +9887,7 @@
         <v>27400</v>
       </c>
       <c r="K189" t="n">
-        <v>25.92592592592592</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L189" t="n">
         <v>108500</v>
@@ -9918,7 +9938,7 @@
         <v>27400</v>
       </c>
       <c r="K190" t="n">
-        <v>25.92592592592592</v>
+        <v>-100</v>
       </c>
       <c r="L190" t="n">
         <v>108480</v>
@@ -9969,7 +9989,7 @@
         <v>27400</v>
       </c>
       <c r="K191" t="n">
-        <v>25.92592592592592</v>
+        <v>-100</v>
       </c>
       <c r="L191" t="n">
         <v>108400</v>
@@ -10020,7 +10040,7 @@
         <v>28100</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L192" t="n">
         <v>108280</v>
@@ -10071,7 +10091,7 @@
         <v>28300</v>
       </c>
       <c r="K193" t="n">
-        <v>2.857142857142857</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L193" t="n">
         <v>108190</v>
@@ -10122,7 +10142,7 @@
         <v>28300</v>
       </c>
       <c r="K194" t="n">
-        <v>-3.03030303030303</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L194" t="n">
         <v>108100</v>
@@ -10173,7 +10193,7 @@
         <v>28400</v>
       </c>
       <c r="K195" t="n">
-        <v>-6.25</v>
+        <v>-50</v>
       </c>
       <c r="L195" t="n">
         <v>108030</v>
@@ -10224,7 +10244,7 @@
         <v>28500</v>
       </c>
       <c r="K196" t="n">
-        <v>-16.12903225806452</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L196" t="n">
         <v>107960</v>
@@ -10275,7 +10295,7 @@
         <v>28700</v>
       </c>
       <c r="K197" t="n">
-        <v>-16.12903225806452</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L197" t="n">
         <v>107870</v>
@@ -10326,7 +10346,7 @@
         <v>29100</v>
       </c>
       <c r="K198" t="n">
-        <v>-25.71428571428571</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L198" t="n">
         <v>107760</v>
@@ -10377,7 +10397,7 @@
         <v>29400</v>
       </c>
       <c r="K199" t="n">
-        <v>-29.41176470588236</v>
+        <v>-40</v>
       </c>
       <c r="L199" t="n">
         <v>107680</v>
@@ -10428,7 +10448,7 @@
         <v>29500</v>
       </c>
       <c r="K200" t="n">
-        <v>-25.71428571428571</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L200" t="n">
         <v>107610</v>
@@ -10479,7 +10499,7 @@
         <v>29600</v>
       </c>
       <c r="K201" t="n">
-        <v>-53.33333333333334</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L201" t="n">
         <v>107530</v>
@@ -10530,7 +10550,7 @@
         <v>29800</v>
       </c>
       <c r="K202" t="n">
-        <v>-51.72413793103448</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>107500</v>
@@ -10581,7 +10601,7 @@
         <v>29900</v>
       </c>
       <c r="K203" t="n">
-        <v>-51.72413793103448</v>
+        <v>-37.5</v>
       </c>
       <c r="L203" t="n">
         <v>107440</v>
@@ -10632,7 +10652,7 @@
         <v>30300</v>
       </c>
       <c r="K204" t="n">
-        <v>-57.57575757575758</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L204" t="n">
         <v>107340</v>
@@ -10683,7 +10703,7 @@
         <v>30400</v>
       </c>
       <c r="K205" t="n">
-        <v>-57.57575757575758</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L205" t="n">
         <v>107220</v>
@@ -10734,7 +10754,7 @@
         <v>30700</v>
       </c>
       <c r="K206" t="n">
-        <v>-42.85714285714285</v>
+        <v>-30</v>
       </c>
       <c r="L206" t="n">
         <v>107140</v>
@@ -10785,7 +10805,7 @@
         <v>30700</v>
       </c>
       <c r="K207" t="n">
-        <v>-42.85714285714285</v>
+        <v>-12.5</v>
       </c>
       <c r="L207" t="n">
         <v>107080</v>
@@ -10836,7 +10856,7 @@
         <v>30700</v>
       </c>
       <c r="K208" t="n">
-        <v>-39.39393939393939</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L208" t="n">
         <v>107060</v>
@@ -10887,7 +10907,7 @@
         <v>30800</v>
       </c>
       <c r="K209" t="n">
-        <v>-35.29411764705883</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L209" t="n">
         <v>107020</v>
@@ -10938,7 +10958,7 @@
         <v>30800</v>
       </c>
       <c r="K210" t="n">
-        <v>-35.29411764705883</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L210" t="n">
         <v>106970</v>
@@ -10989,7 +11009,7 @@
         <v>31000</v>
       </c>
       <c r="K211" t="n">
-        <v>-27.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>106950</v>
@@ -11040,7 +11060,7 @@
         <v>31000</v>
       </c>
       <c r="K212" t="n">
-        <v>-10.3448275862069</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L212" t="n">
         <v>106950</v>
@@ -11091,7 +11111,7 @@
         <v>31300</v>
       </c>
       <c r="K213" t="n">
-        <v>-6.666666666666667</v>
+        <v>80</v>
       </c>
       <c r="L213" t="n">
         <v>106990</v>
@@ -11142,7 +11162,7 @@
         <v>31400</v>
       </c>
       <c r="K214" t="n">
-        <v>-9.67741935483871</v>
+        <v>80</v>
       </c>
       <c r="L214" t="n">
         <v>107060</v>
@@ -11193,7 +11213,7 @@
         <v>31900</v>
       </c>
       <c r="K215" t="n">
-        <v>2.857142857142857</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L215" t="n">
         <v>107190</v>
@@ -11244,7 +11264,7 @@
         <v>32300</v>
       </c>
       <c r="K216" t="n">
-        <v>-5.263157894736842</v>
+        <v>37.5</v>
       </c>
       <c r="L216" t="n">
         <v>107250</v>
@@ -11295,7 +11315,7 @@
         <v>32300</v>
       </c>
       <c r="K217" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L217" t="n">
         <v>107310</v>
@@ -11346,7 +11366,7 @@
         <v>32300</v>
       </c>
       <c r="K218" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L218" t="n">
         <v>107370</v>
@@ -11397,7 +11417,7 @@
         <v>32400</v>
       </c>
       <c r="K219" t="n">
-        <v>6.666666666666667</v>
+        <v>37.5</v>
       </c>
       <c r="L219" t="n">
         <v>107430</v>
@@ -11448,7 +11468,7 @@
         <v>32500</v>
       </c>
       <c r="K220" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L220" t="n">
         <v>107500</v>
@@ -11499,7 +11519,7 @@
         <v>32500</v>
       </c>
       <c r="K221" t="n">
-        <v>10.3448275862069</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>107550</v>
@@ -11550,7 +11570,7 @@
         <v>32500</v>
       </c>
       <c r="K222" t="n">
-        <v>18.51851851851852</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L222" t="n">
         <v>107600</v>
@@ -11601,7 +11621,7 @@
         <v>32600</v>
       </c>
       <c r="K223" t="n">
-        <v>18.51851851851852</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L223" t="n">
         <v>107610</v>
@@ -11652,7 +11672,7 @@
         <v>32700</v>
       </c>
       <c r="K224" t="n">
-        <v>33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L224" t="n">
         <v>107620</v>
@@ -11703,7 +11723,7 @@
         <v>32900</v>
       </c>
       <c r="K225" t="n">
-        <v>44</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L225" t="n">
         <v>107600</v>
@@ -11754,7 +11774,7 @@
         <v>33000</v>
       </c>
       <c r="K226" t="n">
-        <v>39.1304347826087</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L226" t="n">
         <v>107630</v>
@@ -11805,7 +11825,7 @@
         <v>33000</v>
       </c>
       <c r="K227" t="n">
-        <v>39.1304347826087</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L227" t="n">
         <v>107660</v>
@@ -11856,7 +11876,7 @@
         <v>33300</v>
       </c>
       <c r="K228" t="n">
-        <v>46.15384615384615</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L228" t="n">
         <v>107720</v>
@@ -11907,7 +11927,7 @@
         <v>33300</v>
       </c>
       <c r="K229" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L229" t="n">
         <v>107770</v>
@@ -11958,7 +11978,7 @@
         <v>33400</v>
       </c>
       <c r="K230" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L230" t="n">
         <v>107800</v>
@@ -12009,7 +12029,7 @@
         <v>33600</v>
       </c>
       <c r="K231" t="n">
-        <v>23.07692307692308</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L231" t="n">
         <v>107810</v>
@@ -12060,7 +12080,7 @@
         <v>33800</v>
       </c>
       <c r="K232" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L232" t="n">
         <v>107840</v>
@@ -12111,7 +12131,7 @@
         <v>33900</v>
       </c>
       <c r="K233" t="n">
-        <v>15.38461538461539</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>107870</v>
@@ -12162,7 +12182,7 @@
         <v>34300</v>
       </c>
       <c r="K234" t="n">
-        <v>3.448275862068965</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L234" t="n">
         <v>107870</v>
@@ -12213,7 +12233,7 @@
         <v>34300</v>
       </c>
       <c r="K235" t="n">
-        <v>-16.66666666666666</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L235" t="n">
         <v>107850</v>
@@ -12264,7 +12284,7 @@
         <v>34700</v>
       </c>
       <c r="K236" t="n">
-        <v>16.66666666666666</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L236" t="n">
         <v>107860</v>
@@ -12315,7 +12335,7 @@
         <v>34700</v>
       </c>
       <c r="K237" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L237" t="n">
         <v>107870</v>
@@ -12366,7 +12386,7 @@
         <v>34800</v>
       </c>
       <c r="K238" t="n">
-        <v>12</v>
+        <v>-20</v>
       </c>
       <c r="L238" t="n">
         <v>107840</v>
@@ -12417,7 +12437,7 @@
         <v>35000</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L239" t="n">
         <v>107790</v>
@@ -12468,7 +12488,7 @@
         <v>35100</v>
       </c>
       <c r="K240" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L240" t="n">
         <v>107740</v>
@@ -12519,7 +12539,7 @@
         <v>35100</v>
       </c>
       <c r="K241" t="n">
-        <v>-7.692307692307693</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L241" t="n">
         <v>107710</v>
@@ -12570,7 +12590,7 @@
         <v>35200</v>
       </c>
       <c r="K242" t="n">
-        <v>-3.703703703703703</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L242" t="n">
         <v>107670</v>
@@ -12621,7 +12641,7 @@
         <v>35200</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L243" t="n">
         <v>107640</v>
@@ -12672,7 +12692,7 @@
         <v>35500</v>
       </c>
       <c r="K244" t="n">
-        <v>-7.142857142857142</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L244" t="n">
         <v>107620</v>
@@ -12723,7 +12743,7 @@
         <v>35700</v>
       </c>
       <c r="K245" t="n">
-        <v>-7.142857142857142</v>
+        <v>-40</v>
       </c>
       <c r="L245" t="n">
         <v>107620</v>
@@ -12774,7 +12794,7 @@
         <v>35800</v>
       </c>
       <c r="K246" t="n">
-        <v>-7.142857142857142</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L246" t="n">
         <v>107590</v>
@@ -12825,7 +12845,7 @@
         <v>36200</v>
       </c>
       <c r="K247" t="n">
-        <v>6.25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L247" t="n">
         <v>107600</v>
@@ -12876,7 +12896,7 @@
         <v>36300</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L248" t="n">
         <v>107630</v>
@@ -12927,7 +12947,7 @@
         <v>36300</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L249" t="n">
         <v>107680</v>
@@ -12978,7 +12998,7 @@
         <v>36600</v>
       </c>
       <c r="K250" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="L250" t="n">
         <v>107770</v>
@@ -13029,7 +13049,7 @@
         <v>36600</v>
       </c>
       <c r="K251" t="n">
-        <v>20</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L251" t="n">
         <v>107860</v>
@@ -13080,7 +13100,7 @@
         <v>36600</v>
       </c>
       <c r="K252" t="n">
-        <v>14.28571428571428</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L252" t="n">
         <v>107940</v>
@@ -13131,7 +13151,7 @@
         <v>36600</v>
       </c>
       <c r="K253" t="n">
-        <v>18.51851851851852</v>
+        <v>100</v>
       </c>
       <c r="L253" t="n">
         <v>108020</v>
@@ -13182,7 +13202,7 @@
         <v>36600</v>
       </c>
       <c r="K254" t="n">
-        <v>39.1304347826087</v>
+        <v>100</v>
       </c>
       <c r="L254" t="n">
         <v>108130</v>
@@ -13233,7 +13253,7 @@
         <v>37100</v>
       </c>
       <c r="K255" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L255" t="n">
         <v>108270</v>
@@ -13284,7 +13304,7 @@
         <v>37400</v>
       </c>
       <c r="K256" t="n">
-        <v>25.92592592592592</v>
+        <v>50</v>
       </c>
       <c r="L256" t="n">
         <v>108370</v>
@@ -13335,7 +13355,7 @@
         <v>37500</v>
       </c>
       <c r="K257" t="n">
-        <v>21.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>108420</v>
@@ -13386,7 +13406,7 @@
         <v>37800</v>
       </c>
       <c r="K258" t="n">
-        <v>33.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L258" t="n">
         <v>108490</v>
@@ -13437,7 +13457,7 @@
         <v>37900</v>
       </c>
       <c r="K259" t="n">
-        <v>37.93103448275862</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L259" t="n">
         <v>108550</v>
@@ -13488,7 +13508,7 @@
         <v>38000</v>
       </c>
       <c r="K260" t="n">
-        <v>37.93103448275862</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L260" t="n">
         <v>108570</v>
@@ -13539,7 +13559,7 @@
         <v>38400</v>
       </c>
       <c r="K261" t="n">
-        <v>21.21212121212121</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L261" t="n">
         <v>108550</v>
@@ -13590,7 +13610,7 @@
         <v>38400</v>
       </c>
       <c r="K262" t="n">
-        <v>18.75</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L262" t="n">
         <v>108530</v>
@@ -13641,7 +13661,7 @@
         <v>38500</v>
       </c>
       <c r="K263" t="n">
-        <v>15.15151515151515</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L263" t="n">
         <v>108500</v>
@@ -13692,7 +13712,7 @@
         <v>38700</v>
       </c>
       <c r="K264" t="n">
-        <v>18.75</v>
+        <v>-62.5</v>
       </c>
       <c r="L264" t="n">
         <v>108450</v>
@@ -13743,7 +13763,7 @@
         <v>39100</v>
       </c>
       <c r="K265" t="n">
-        <v>23.52941176470588</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L265" t="n">
         <v>108390</v>
@@ -13794,7 +13814,7 @@
         <v>39200</v>
       </c>
       <c r="K266" t="n">
-        <v>17.64705882352941</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L266" t="n">
         <v>108350</v>
@@ -13845,7 +13865,7 @@
         <v>39200</v>
       </c>
       <c r="K267" t="n">
-        <v>6.666666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L267" t="n">
         <v>108320</v>
@@ -13896,7 +13916,7 @@
         <v>39500</v>
       </c>
       <c r="K268" t="n">
-        <v>12.5</v>
+        <v>-12.5</v>
       </c>
       <c r="L268" t="n">
         <v>108290</v>
@@ -13947,7 +13967,7 @@
         <v>39500</v>
       </c>
       <c r="K269" t="n">
-        <v>12.5</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L269" t="n">
         <v>108270</v>
@@ -13998,7 +14018,7 @@
         <v>39600</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L270" t="n">
         <v>108250</v>
@@ -14049,7 +14069,7 @@
         <v>39800</v>
       </c>
       <c r="K271" t="n">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>108250</v>
@@ -14100,7 +14120,7 @@
         <v>40000</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L272" t="n">
         <v>108270</v>
@@ -14151,7 +14171,7 @@
         <v>40200</v>
       </c>
       <c r="K273" t="n">
-        <v>-5.555555555555555</v>
+        <v>20</v>
       </c>
       <c r="L273" t="n">
         <v>108280</v>
@@ -14202,7 +14222,7 @@
         <v>40300</v>
       </c>
       <c r="K274" t="n">
-        <v>-8.108108108108109</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L274" t="n">
         <v>108300</v>
@@ -14253,7 +14273,7 @@
         <v>40400</v>
       </c>
       <c r="K275" t="n">
-        <v>-27.27272727272727</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L275" t="n">
         <v>108270</v>
@@ -14304,7 +14324,7 @@
         <v>40400</v>
       </c>
       <c r="K276" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L276" t="n">
         <v>108250</v>
@@ -14355,7 +14375,7 @@
         <v>40500</v>
       </c>
       <c r="K277" t="n">
-        <v>-13.33333333333333</v>
+        <v>-40</v>
       </c>
       <c r="L277" t="n">
         <v>108240</v>
@@ -14406,7 +14426,7 @@
         <v>40900</v>
       </c>
       <c r="K278" t="n">
-        <v>-35.48387096774194</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L278" t="n">
         <v>108160</v>
@@ -14457,7 +14477,7 @@
         <v>41100</v>
       </c>
       <c r="K279" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L279" t="n">
         <v>108100</v>
@@ -14508,7 +14528,7 @@
         <v>41400</v>
       </c>
       <c r="K280" t="n">
-        <v>-29.41176470588236</v>
+        <v>-37.5</v>
       </c>
       <c r="L280" t="n">
         <v>108020</v>
@@ -14559,7 +14579,7 @@
         <v>41900</v>
       </c>
       <c r="K281" t="n">
-        <v>-2.857142857142857</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L281" t="n">
         <v>108010</v>
@@ -14610,7 +14630,7 @@
         <v>42200</v>
       </c>
       <c r="K282" t="n">
-        <v>-10.52631578947368</v>
+        <v>-20</v>
       </c>
       <c r="L282" t="n">
         <v>107950</v>
@@ -14661,7 +14681,7 @@
         <v>42300</v>
       </c>
       <c r="K283" t="n">
-        <v>-5.263157894736842</v>
+        <v>-10</v>
       </c>
       <c r="L283" t="n">
         <v>107920</v>
@@ -14712,7 +14732,7 @@
         <v>42300</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L284" t="n">
         <v>107900</v>
@@ -14763,7 +14783,7 @@
         <v>42500</v>
       </c>
       <c r="K285" t="n">
-        <v>-5.88235294117647</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L285" t="n">
         <v>107910</v>
@@ -14814,7 +14834,7 @@
         <v>42500</v>
       </c>
       <c r="K286" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>107920</v>
@@ -14865,7 +14885,7 @@
         <v>42500</v>
       </c>
       <c r="K287" t="n">
-        <v>-3.03030303030303</v>
+        <v>25</v>
       </c>
       <c r="L287" t="n">
         <v>107920</v>
@@ -14916,7 +14936,7 @@
         <v>42900</v>
       </c>
       <c r="K288" t="n">
-        <v>-23.52941176470588</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L288" t="n">
         <v>107920</v>
@@ -14967,7 +14987,7 @@
         <v>43000</v>
       </c>
       <c r="K289" t="n">
-        <v>-25.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
         <v>107890</v>
@@ -15018,7 +15038,7 @@
         <v>43400</v>
       </c>
       <c r="K290" t="n">
-        <v>-10.52631578947368</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L290" t="n">
         <v>107930</v>
@@ -15069,7 +15089,7 @@
         <v>43700</v>
       </c>
       <c r="K291" t="n">
-        <v>-12.82051282051282</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L291" t="n">
         <v>107890</v>
@@ -15120,7 +15140,7 @@
         <v>43700</v>
       </c>
       <c r="K292" t="n">
-        <v>-18.91891891891892</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L292" t="n">
         <v>107880</v>
@@ -15222,7 +15242,7 @@
         <v>43700</v>
       </c>
       <c r="K294" t="n">
-        <v>-11.76470588235294</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L294" t="n">
         <v>107840</v>
@@ -15273,7 +15293,7 @@
         <v>43700</v>
       </c>
       <c r="K295" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L295" t="n">
         <v>107800</v>
@@ -15324,7 +15344,7 @@
         <v>43700</v>
       </c>
       <c r="K296" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>107760</v>
@@ -15375,7 +15395,7 @@
         <v>43700</v>
       </c>
       <c r="K297" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>107720</v>
@@ -15426,7 +15446,7 @@
         <v>43700</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L298" t="n">
         <v>107720</v>
@@ -15477,7 +15497,7 @@
         <v>43800</v>
       </c>
       <c r="K299" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L299" t="n">
         <v>107720</v>
@@ -15528,7 +15548,7 @@
         <v>43800</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L300" t="n">
         <v>107680</v>
@@ -15579,7 +15599,7 @@
         <v>43900</v>
       </c>
       <c r="K301" t="n">
-        <v>-30</v>
+        <v>-100</v>
       </c>
       <c r="L301" t="n">
         <v>107660</v>
@@ -15630,7 +15650,7 @@
         <v>44000</v>
       </c>
       <c r="K302" t="n">
-        <v>-22.22222222222222</v>
+        <v>-100</v>
       </c>
       <c r="L302" t="n">
         <v>107630</v>
@@ -15681,7 +15701,7 @@
         <v>44100</v>
       </c>
       <c r="K303" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L303" t="n">
         <v>107590</v>
@@ -15732,7 +15752,7 @@
         <v>44100</v>
       </c>
       <c r="K304" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L304" t="n">
         <v>107550</v>
@@ -15783,7 +15803,7 @@
         <v>44200</v>
       </c>
       <c r="K305" t="n">
-        <v>-41.17647058823529</v>
+        <v>-60</v>
       </c>
       <c r="L305" t="n">
         <v>107520</v>
@@ -15834,7 +15854,7 @@
         <v>44500</v>
       </c>
       <c r="K306" t="n">
-        <v>-50</v>
+        <v>-75</v>
       </c>
       <c r="L306" t="n">
         <v>107460</v>
@@ -15885,7 +15905,7 @@
         <v>44600</v>
       </c>
       <c r="K307" t="n">
-        <v>-42.85714285714285</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L307" t="n">
         <v>107410</v>
@@ -15936,7 +15956,7 @@
         <v>44700</v>
       </c>
       <c r="K308" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L308" t="n">
         <v>107370</v>
@@ -15987,7 +16007,7 @@
         <v>44800</v>
       </c>
       <c r="K309" t="n">
-        <v>-22.22222222222222</v>
+        <v>-40</v>
       </c>
       <c r="L309" t="n">
         <v>107330</v>
@@ -16038,7 +16058,7 @@
         <v>44900</v>
       </c>
       <c r="K310" t="n">
-        <v>-46.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L310" t="n">
         <v>107300</v>
@@ -16089,7 +16109,7 @@
         <v>45000</v>
       </c>
       <c r="K311" t="n">
-        <v>-38.46153846153847</v>
+        <v>-20</v>
       </c>
       <c r="L311" t="n">
         <v>107270</v>
@@ -16140,7 +16160,7 @@
         <v>45100</v>
       </c>
       <c r="K312" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>107260</v>
@@ -16191,7 +16211,7 @@
         <v>45100</v>
       </c>
       <c r="K313" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>107260</v>
@@ -16242,7 +16262,7 @@
         <v>45200</v>
       </c>
       <c r="K314" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>107270</v>
@@ -16293,7 +16313,7 @@
         <v>45400</v>
       </c>
       <c r="K315" t="n">
-        <v>-29.41176470588236</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L315" t="n">
         <v>107250</v>
@@ -16344,7 +16364,7 @@
         <v>45400</v>
       </c>
       <c r="K316" t="n">
-        <v>-29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>107260</v>
@@ -16395,7 +16415,7 @@
         <v>45700</v>
       </c>
       <c r="K317" t="n">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="L317" t="n">
         <v>107290</v>
@@ -16446,7 +16466,7 @@
         <v>45700</v>
       </c>
       <c r="K318" t="n">
-        <v>-10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L318" t="n">
         <v>107310</v>
@@ -16497,7 +16517,7 @@
         <v>45900</v>
       </c>
       <c r="K319" t="n">
-        <v>4.761904761904762</v>
+        <v>40</v>
       </c>
       <c r="L319" t="n">
         <v>107360</v>
@@ -16548,7 +16568,7 @@
         <v>46000</v>
       </c>
       <c r="K320" t="n">
-        <v>9.090909090909092</v>
+        <v>60</v>
       </c>
       <c r="L320" t="n">
         <v>107410</v>
@@ -16599,7 +16619,7 @@
         <v>46200</v>
       </c>
       <c r="K321" t="n">
-        <v>4.347826086956522</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L321" t="n">
         <v>107450</v>
@@ -16650,7 +16670,7 @@
         <v>46300</v>
       </c>
       <c r="K322" t="n">
-        <v>4.347826086956522</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L322" t="n">
         <v>107470</v>
@@ -16701,7 +16721,7 @@
         <v>46600</v>
       </c>
       <c r="K323" t="n">
-        <v>20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L323" t="n">
         <v>107520</v>
@@ -16752,7 +16772,7 @@
         <v>46600</v>
       </c>
       <c r="K324" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L324" t="n">
         <v>107560</v>
@@ -16803,7 +16823,7 @@
         <v>46700</v>
       </c>
       <c r="K325" t="n">
-        <v>12</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L325" t="n">
         <v>107610</v>
@@ -16854,7 +16874,7 @@
         <v>46900</v>
       </c>
       <c r="K326" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>107640</v>
@@ -16905,7 +16925,7 @@
         <v>47100</v>
       </c>
       <c r="K327" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L327" t="n">
         <v>107660</v>
@@ -16956,7 +16976,7 @@
         <v>47600</v>
       </c>
       <c r="K328" t="n">
-        <v>-3.448275862068965</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L328" t="n">
         <v>107630</v>
@@ -17007,7 +17027,7 @@
         <v>48000</v>
       </c>
       <c r="K329" t="n">
-        <v>12.5</v>
+        <v>-10</v>
       </c>
       <c r="L329" t="n">
         <v>107620</v>
@@ -17058,7 +17078,7 @@
         <v>48700</v>
       </c>
       <c r="K330" t="n">
-        <v>-10.52631578947368</v>
+        <v>-28</v>
       </c>
       <c r="L330" t="n">
         <v>107530</v>
@@ -17109,7 +17129,7 @@
         <v>49500</v>
       </c>
       <c r="K331" t="n">
-        <v>-24.44444444444444</v>
+        <v>-43.75</v>
       </c>
       <c r="L331" t="n">
         <v>107380</v>
@@ -17160,7 +17180,7 @@
         <v>50100</v>
       </c>
       <c r="K332" t="n">
-        <v>-12</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L332" t="n">
         <v>107300</v>
@@ -17211,7 +17231,7 @@
         <v>50100</v>
       </c>
       <c r="K333" t="n">
-        <v>-12</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L333" t="n">
         <v>107190</v>
@@ -17262,7 +17282,7 @@
         <v>50300</v>
       </c>
       <c r="K334" t="n">
-        <v>-9.803921568627452</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L334" t="n">
         <v>107100</v>
@@ -17313,7 +17333,7 @@
         <v>50300</v>
       </c>
       <c r="K335" t="n">
-        <v>-6.122448979591836</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L335" t="n">
         <v>107020</v>
@@ -17364,7 +17384,7 @@
         <v>50500</v>
       </c>
       <c r="K336" t="n">
-        <v>-1.96078431372549</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L336" t="n">
         <v>106980</v>
@@ -17415,7 +17435,7 @@
         <v>50800</v>
       </c>
       <c r="K337" t="n">
-        <v>-1.96078431372549</v>
+        <v>6.25</v>
       </c>
       <c r="L337" t="n">
         <v>106950</v>
@@ -17466,7 +17486,7 @@
         <v>51300</v>
       </c>
       <c r="K338" t="n">
-        <v>-10.71428571428571</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L338" t="n">
         <v>106920</v>
@@ -17517,7 +17537,7 @@
         <v>51500</v>
       </c>
       <c r="K339" t="n">
-        <v>-10.71428571428571</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L339" t="n">
         <v>106870</v>
@@ -17568,7 +17588,7 @@
         <v>51500</v>
       </c>
       <c r="K340" t="n">
-        <v>-12.72727272727273</v>
+        <v>50</v>
       </c>
       <c r="L340" t="n">
         <v>106890</v>
@@ -17619,7 +17639,7 @@
         <v>51900</v>
       </c>
       <c r="K341" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>106950</v>
@@ -17670,7 +17690,7 @@
         <v>51900</v>
       </c>
       <c r="K342" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L342" t="n">
         <v>106950</v>
@@ -17721,7 +17741,7 @@
         <v>52100</v>
       </c>
       <c r="K343" t="n">
-        <v>-16.36363636363636</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>106970</v>
@@ -17772,7 +17792,7 @@
         <v>52200</v>
       </c>
       <c r="K344" t="n">
-        <v>-17.85714285714286</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L344" t="n">
         <v>106960</v>
@@ -17823,7 +17843,7 @@
         <v>52400</v>
       </c>
       <c r="K345" t="n">
-        <v>-19.29824561403509</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L345" t="n">
         <v>106930</v>
@@ -17874,7 +17894,7 @@
         <v>52500</v>
       </c>
       <c r="K346" t="n">
-        <v>-14.28571428571428</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L346" t="n">
         <v>106890</v>
@@ -17925,7 +17945,7 @@
         <v>52700</v>
       </c>
       <c r="K347" t="n">
-        <v>-21.42857142857143</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L347" t="n">
         <v>106800</v>
@@ -17976,7 +17996,7 @@
         <v>52800</v>
       </c>
       <c r="K348" t="n">
-        <v>-15.38461538461539</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L348" t="n">
         <v>106750</v>
@@ -18027,7 +18047,7 @@
         <v>52800</v>
       </c>
       <c r="K349" t="n">
-        <v>-25</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L349" t="n">
         <v>106680</v>
@@ -18078,7 +18098,7 @@
         <v>53500</v>
       </c>
       <c r="K350" t="n">
-        <v>4.166666666666666</v>
+        <v>25</v>
       </c>
       <c r="L350" t="n">
         <v>106680</v>
@@ -18129,7 +18149,7 @@
         <v>53800</v>
       </c>
       <c r="K351" t="n">
-        <v>16.27906976744186</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L351" t="n">
         <v>106690</v>
@@ -18180,7 +18200,7 @@
         <v>53800</v>
       </c>
       <c r="K352" t="n">
-        <v>2.702702702702703</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L352" t="n">
         <v>106700</v>
@@ -18231,7 +18251,7 @@
         <v>55400</v>
       </c>
       <c r="K353" t="n">
-        <v>32.0754716981132</v>
+        <v>50</v>
       </c>
       <c r="L353" t="n">
         <v>106850</v>
@@ -18282,7 +18302,7 @@
         <v>55600</v>
       </c>
       <c r="K354" t="n">
-        <v>24.52830188679245</v>
+        <v>50</v>
       </c>
       <c r="L354" t="n">
         <v>106990</v>
@@ -18333,7 +18353,7 @@
         <v>56000</v>
       </c>
       <c r="K355" t="n">
-        <v>15.78947368421053</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L355" t="n">
         <v>107110</v>
@@ -18384,7 +18404,7 @@
         <v>56200</v>
       </c>
       <c r="K356" t="n">
-        <v>15.78947368421053</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L356" t="n">
         <v>107240</v>
@@ -18435,7 +18455,7 @@
         <v>56600</v>
       </c>
       <c r="K357" t="n">
-        <v>17.24137931034483</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L357" t="n">
         <v>107430</v>
@@ -18486,7 +18506,7 @@
         <v>56600</v>
       </c>
       <c r="K358" t="n">
-        <v>28.30188679245283</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L358" t="n">
         <v>107630</v>
@@ -18537,7 +18557,7 @@
         <v>56900</v>
       </c>
       <c r="K359" t="n">
-        <v>18.51851851851852</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L359" t="n">
         <v>107800</v>
@@ -18588,7 +18608,7 @@
         <v>57200</v>
       </c>
       <c r="K360" t="n">
-        <v>12.28070175438596</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L360" t="n">
         <v>107870</v>
@@ -18639,7 +18659,7 @@
         <v>57700</v>
       </c>
       <c r="K361" t="n">
-        <v>27.58620689655172</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L361" t="n">
         <v>108020</v>
@@ -18690,7 +18710,7 @@
         <v>58000</v>
       </c>
       <c r="K362" t="n">
-        <v>21.31147540983606</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L362" t="n">
         <v>108140</v>
@@ -18741,7 +18761,7 @@
         <v>58000</v>
       </c>
       <c r="K363" t="n">
-        <v>18.64406779661017</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L363" t="n">
         <v>108100</v>
@@ -18792,7 +18812,7 @@
         <v>58000</v>
       </c>
       <c r="K364" t="n">
-        <v>20.68965517241379</v>
+        <v>10</v>
       </c>
       <c r="L364" t="n">
         <v>108080</v>
@@ -18843,7 +18863,7 @@
         <v>58000</v>
       </c>
       <c r="K365" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L365" t="n">
         <v>108100</v>
@@ -18894,7 +18914,7 @@
         <v>58000</v>
       </c>
       <c r="K366" t="n">
-        <v>23.63636363636364</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L366" t="n">
         <v>108100</v>
@@ -18945,7 +18965,7 @@
         <v>58300</v>
       </c>
       <c r="K367" t="n">
-        <v>32.14285714285715</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L367" t="n">
         <v>108090</v>
@@ -18996,7 +19016,7 @@
         <v>58600</v>
       </c>
       <c r="K368" t="n">
-        <v>27.58620689655172</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L368" t="n">
         <v>108050</v>
@@ -19047,7 +19067,7 @@
         <v>58800</v>
       </c>
       <c r="K369" t="n">
-        <v>23.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>108020</v>
@@ -19098,7 +19118,7 @@
         <v>58800</v>
       </c>
       <c r="K370" t="n">
-        <v>13.20754716981132</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L370" t="n">
         <v>108020</v>
@@ -19149,7 +19169,7 @@
         <v>58800</v>
       </c>
       <c r="K371" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="L371" t="n">
         <v>107970</v>
@@ -19200,7 +19220,7 @@
         <v>58900</v>
       </c>
       <c r="K372" t="n">
-        <v>21.56862745098039</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L372" t="n">
         <v>107960</v>
@@ -19251,7 +19271,7 @@
         <v>59000</v>
       </c>
       <c r="K373" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L373" t="n">
         <v>107940</v>
@@ -19302,7 +19322,7 @@
         <v>59400</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L374" t="n">
         <v>107960</v>

--- a/BackTest/2019-10-19 BackTest BSV.xlsx
+++ b/BackTest/2019-10-19 BackTest BSV.xlsx
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="K109" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
@@ -4241,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>106400</v>
+        <v>106300</v>
       </c>
       <c r="K110" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>106500</v>
+        <v>106400</v>
       </c>
       <c r="K111" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4327,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>106300</v>
+        <v>106400</v>
       </c>
       <c r="K112" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4364,16 +4364,14 @@
         <v>107058.3333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>106400</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4407,16 +4405,14 @@
         <v>107040</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>106300</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4456,10 +4452,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>106300</v>
+        <v>106400</v>
       </c>
       <c r="K115" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4499,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>106500</v>
+        <v>106300</v>
       </c>
       <c r="K116" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4542,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>106400</v>
+        <v>106500</v>
       </c>
       <c r="K117" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4579,16 +4575,14 @@
         <v>106968.3333333333</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>106500</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4622,16 +4616,14 @@
         <v>106950</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>106500</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4674,7 +4666,7 @@
         <v>106500</v>
       </c>
       <c r="K120" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4708,16 +4700,14 @@
         <v>106920</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>106500</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4760,7 +4750,7 @@
         <v>106500</v>
       </c>
       <c r="K122" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4794,16 +4784,14 @@
         <v>106883.3333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>106400</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4837,16 +4825,14 @@
         <v>106861.6666666667</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>106500</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4880,16 +4866,14 @@
         <v>106845</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>106500</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4923,16 +4907,14 @@
         <v>106826.6666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>106500</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4973,7 +4955,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5007,16 +4989,14 @@
         <v>106776.6666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>106400</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5050,16 +5030,14 @@
         <v>106758.3333333333</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>106500</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5093,16 +5071,14 @@
         <v>106746.6666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>106500</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5136,16 +5112,14 @@
         <v>106733.3333333333</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>106400</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5179,16 +5153,14 @@
         <v>106718.3333333333</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>106400</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5222,16 +5194,14 @@
         <v>106706.6666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>106500</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5265,16 +5235,14 @@
         <v>106693.3333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>106400</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5308,16 +5276,14 @@
         <v>106675</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>106300</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5351,16 +5317,14 @@
         <v>106658.3333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>106600</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5394,16 +5358,14 @@
         <v>106648.3333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>106500</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5437,16 +5399,14 @@
         <v>106635</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>106600</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5480,16 +5440,14 @@
         <v>106626.6666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>106800</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5523,16 +5481,14 @@
         <v>106618.3333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>106900</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5566,16 +5522,14 @@
         <v>106611.6666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>106800</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5616,7 +5570,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5657,7 +5611,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5691,16 +5645,14 @@
         <v>106553.3333333333</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>106100</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5734,16 +5686,14 @@
         <v>106541.6666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>106400</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5777,16 +5727,14 @@
         <v>106530</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>106400</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5820,16 +5768,14 @@
         <v>106520</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>106400</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5863,16 +5809,14 @@
         <v>106498.3333333333</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
         <v>106200</v>
-      </c>
-      <c r="K148" t="n">
-        <v>106300</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5906,16 +5850,14 @@
         <v>106480</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>106400</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5949,16 +5891,14 @@
         <v>106465</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>106300</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5992,16 +5932,14 @@
         <v>106453.3333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
         <v>106200</v>
-      </c>
-      <c r="K151" t="n">
-        <v>106300</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6035,16 +5973,14 @@
         <v>106448.3333333333</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>106500</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6078,16 +6014,14 @@
         <v>106443.3333333333</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>106700</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6121,16 +6055,14 @@
         <v>106445</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>106900</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6164,16 +6096,14 @@
         <v>106448.3333333333</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>106900</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6207,16 +6137,14 @@
         <v>106455</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>106900</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6257,7 +6185,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6298,7 +6226,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6339,7 +6267,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6380,7 +6308,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6417,19 +6345,19 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>106300</v>
+        <v>106200</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>1</v>
+        <v>1.007241054613936</v>
       </c>
     </row>
     <row r="162">
@@ -6461,14 +6389,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6502,14 +6424,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6543,14 +6459,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6584,14 +6494,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6625,14 +6529,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6666,14 +6564,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6707,14 +6599,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6748,14 +6634,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6789,14 +6669,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6830,14 +6704,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6871,14 +6739,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6912,14 +6774,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6953,14 +6809,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6994,14 +6844,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7035,14 +6879,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7073,17 +6911,11 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7114,17 +6946,11 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7158,14 +6984,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7199,14 +7019,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7240,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7278,17 +7086,11 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7319,17 +7121,11 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7360,17 +7156,11 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7401,19 +7191,13 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>106300</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>1.015696142991533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -7442,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
@@ -7477,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -7547,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest BSV.xlsx
+++ b/BackTest/2019-10-19 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1606,7 +1606,7 @@
         <v>-117.3288373399999</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-109.7608373399999</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-137.6053373399999</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-140.6053373399999</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-137.5896373399999</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-137.5896373399999</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-111.6639373399999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-111.6639373399999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-111.6915362299999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-111.7015362299999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-111.3515362299999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-111.3790362299999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-108.1720362299999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-120.1839362299999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-119.3639362299999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-119.3639362299999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-132.1237362299999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-132.0134362299999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-132.2805362299999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-132.2805362299999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-135.1495362299999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-107.4584362299999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-107.4584362299999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-114.5406362299999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-122.7910362299999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-235.6940362299999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-235.6940362299999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-227.0564362299999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-236.1455362299999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-235.48553623</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-236.48553623</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-235.9955362299999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-235.9955362299999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-236.35553623</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-236.6087362299999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-257.62213623</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-257.62213623</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-257.83493623</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-257.48493623</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-257.48493623</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-257.56873623</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -5896,10 +5896,14 @@
         <v>-513.2550493099998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>106200</v>
+      </c>
+      <c r="J167" t="n">
+        <v>106200</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
@@ -5929,11 +5933,19 @@
         <v>-503.6360493099997</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>106200</v>
+      </c>
+      <c r="J168" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +5974,19 @@
         <v>-503.3160493099998</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>106300</v>
+      </c>
+      <c r="J169" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6015,19 @@
         <v>-503.3160493099998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>106400</v>
+      </c>
+      <c r="J170" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6056,19 @@
         <v>-553.3331493099997</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>106400</v>
+      </c>
+      <c r="J171" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6097,19 @@
         <v>-549.1423493099998</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>106200</v>
+      </c>
+      <c r="J172" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6138,19 @@
         <v>-547.6351493099997</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>106300</v>
+      </c>
+      <c r="J173" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6179,19 @@
         <v>-548.8051493099997</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>106400</v>
+      </c>
+      <c r="J174" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6220,19 @@
         <v>-548.2251493099997</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>106300</v>
+      </c>
+      <c r="J175" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6261,19 @@
         <v>-549.0451493099997</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>106500</v>
+      </c>
+      <c r="J176" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6302,19 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>106400</v>
+      </c>
+      <c r="J177" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6346,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6382,19 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>106500</v>
+      </c>
+      <c r="J179" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6423,19 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>106500</v>
+      </c>
+      <c r="J180" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6464,19 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>106500</v>
+      </c>
+      <c r="J181" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6505,19 @@
         <v>-549.1338493099996</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>106500</v>
+      </c>
+      <c r="J182" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6546,19 @@
         <v>-548.6038493099996</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>106400</v>
+      </c>
+      <c r="J183" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6587,19 @@
         <v>-435.6638576499996</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>106500</v>
+      </c>
+      <c r="J184" t="n">
+        <v>106200</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,15 +6628,17 @@
         <v>-440.7838576499996</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>106800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
+        <v>106200</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,17 +6667,15 @@
         <v>-458.6038576499996</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>106500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
@@ -6572,11 +6710,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L187" t="n">
@@ -6611,7 +6749,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6650,7 +6788,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6685,11 +6823,13 @@
         <v>-535.9200576499996</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>106600</v>
+      </c>
       <c r="J190" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6728,7 +6868,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6763,11 +6903,13 @@
         <v>-535.2718576499996</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>106400</v>
+      </c>
       <c r="J192" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6802,11 +6944,13 @@
         <v>-555.2718576499996</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>106500</v>
+      </c>
       <c r="J193" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6841,13 +6985,13 @@
         <v>-546.6834576499996</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>106400</v>
       </c>
       <c r="J194" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -6882,13 +7026,13 @@
         <v>-546.6834576499996</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>106600</v>
       </c>
       <c r="J195" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -6923,11 +7067,13 @@
         <v>-546.6879576499996</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>106600</v>
+      </c>
       <c r="J196" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -6962,11 +7108,13 @@
         <v>-546.6827576499996</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>106500</v>
+      </c>
       <c r="J197" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7001,11 +7149,13 @@
         <v>-521.5522576499997</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>106600</v>
+      </c>
       <c r="J198" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7040,11 +7190,13 @@
         <v>-521.1105576499997</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>106800</v>
+      </c>
       <c r="J199" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7083,7 +7235,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7122,7 +7274,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7157,11 +7309,13 @@
         <v>-577.5051576499997</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>106300</v>
+      </c>
       <c r="J202" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7196,11 +7350,13 @@
         <v>-578.3096576499996</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>106200</v>
+      </c>
       <c r="J203" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7235,13 +7391,13 @@
         <v>-578.2590576499996</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>106100</v>
       </c>
       <c r="J204" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7276,13 +7432,13 @@
         <v>-578.2590576499996</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>106400</v>
       </c>
       <c r="J205" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7317,13 +7473,13 @@
         <v>-578.2590576499996</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>106400</v>
       </c>
       <c r="J206" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7358,13 +7514,13 @@
         <v>-599.8767576499996</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>106400</v>
       </c>
       <c r="J207" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7399,13 +7555,13 @@
         <v>-599.4063576499996</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>106100</v>
       </c>
       <c r="J208" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7440,13 +7596,13 @@
         <v>-600.4154576499996</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>106400</v>
       </c>
       <c r="J209" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7481,13 +7637,13 @@
         <v>-592.0154576499996</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>106300</v>
       </c>
       <c r="J210" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7522,13 +7678,13 @@
         <v>-529.3541576499996</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>106400</v>
       </c>
       <c r="J211" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7563,13 +7719,13 @@
         <v>-529.3541576499996</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>106700</v>
       </c>
       <c r="J212" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7604,13 +7760,13 @@
         <v>-528.4441576499996</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>106700</v>
       </c>
       <c r="J213" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7645,13 +7801,13 @@
         <v>-528.4441576499996</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>106900</v>
       </c>
       <c r="J214" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7686,13 +7842,13 @@
         <v>-528.4441576499996</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>106900</v>
       </c>
       <c r="J215" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7727,13 +7883,11 @@
         <v>-527.4441576499996</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>106900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7768,13 +7922,11 @@
         <v>-527.4431576499996</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>107100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7809,13 +7961,11 @@
         <v>-514.4431576499996</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>107600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7854,7 +8004,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7889,13 +8039,11 @@
         <v>-451.7771576499997</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>107400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7930,13 +8078,11 @@
         <v>-451.7771576499997</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>107500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7975,7 +8121,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8010,13 +8156,11 @@
         <v>-398.3995576499997</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>107500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8051,13 +8195,11 @@
         <v>-398.3995576499997</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>107600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8092,13 +8234,11 @@
         <v>-399.0114576499997</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>107600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8137,7 +8277,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8172,13 +8312,11 @@
         <v>-417.3646576499997</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>107600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8213,13 +8351,11 @@
         <v>-417.3646576499997</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>107500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8254,13 +8390,11 @@
         <v>-417.3646576499997</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>107500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8299,7 +8433,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8338,7 +8472,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8377,7 +8511,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8416,7 +8550,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8455,7 +8589,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8494,7 +8628,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8533,7 +8667,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8572,7 +8706,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8611,7 +8745,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8650,7 +8784,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8689,7 +8823,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8728,7 +8862,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8763,11 +8897,11 @@
         <v>-317.4371576499997</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8806,7 +8940,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8845,7 +8979,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8884,7 +9018,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8919,11 +9053,11 @@
         <v>-330.7462576499997</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8958,11 +9092,11 @@
         <v>-434.8506576499997</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8997,11 +9131,11 @@
         <v>-434.8506576499997</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9036,11 +9170,11 @@
         <v>-434.8506576499997</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9075,11 +9209,11 @@
         <v>-434.8506576499997</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9118,7 +9252,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9157,7 +9291,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9196,7 +9330,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9235,7 +9369,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9270,11 +9404,13 @@
         <v>-372.7597576499997</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>107800</v>
+      </c>
       <c r="J255" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9309,11 +9445,13 @@
         <v>-373.2091576499997</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>107700</v>
+      </c>
       <c r="J256" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9348,11 +9486,13 @@
         <v>-377.2120576499997</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>107500</v>
+      </c>
       <c r="J257" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9387,11 +9527,13 @@
         <v>-376.9720576499997</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>107100</v>
+      </c>
       <c r="J258" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9426,11 +9568,13 @@
         <v>-376.7320576499997</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>107400</v>
+      </c>
       <c r="J259" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9465,11 +9609,13 @@
         <v>-377.2520576499997</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>107500</v>
+      </c>
       <c r="J260" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9504,11 +9650,13 @@
         <v>-377.5720576499997</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>107400</v>
+      </c>
       <c r="J261" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9543,11 +9691,13 @@
         <v>-387.5720576499997</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>107200</v>
+      </c>
       <c r="J262" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9582,11 +9732,13 @@
         <v>-434.8152576499997</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>107100</v>
+      </c>
       <c r="J263" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9623,9 +9775,11 @@
       <c r="H264" t="n">
         <v>1</v>
       </c>
-      <c r="I264" t="inlineStr"/>
+      <c r="I264" t="n">
+        <v>106700</v>
+      </c>
       <c r="J264" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9662,9 +9816,11 @@
       <c r="H265" t="n">
         <v>1</v>
       </c>
-      <c r="I265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>106600</v>
+      </c>
       <c r="J265" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9701,9 +9857,11 @@
       <c r="H266" t="n">
         <v>1</v>
       </c>
-      <c r="I266" t="inlineStr"/>
+      <c r="I266" t="n">
+        <v>106900</v>
+      </c>
       <c r="J266" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9738,11 +9896,13 @@
         <v>-510.4656576499997</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>106900</v>
+      </c>
       <c r="J267" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9781,7 +9941,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9820,7 +9980,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9859,7 +10019,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9898,7 +10058,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9937,7 +10097,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9976,7 +10136,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10015,7 +10175,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10054,7 +10214,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10093,7 +10253,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10132,7 +10292,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10171,7 +10331,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10210,7 +10370,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10249,7 +10409,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10288,7 +10448,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10327,7 +10487,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10366,7 +10526,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10405,7 +10565,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10444,7 +10604,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10483,7 +10643,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10522,7 +10682,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10561,7 +10721,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10600,7 +10760,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10639,7 +10799,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10678,7 +10838,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10717,7 +10877,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10756,7 +10916,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10795,7 +10955,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10834,7 +10994,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10873,7 +11033,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10912,7 +11072,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10951,7 +11111,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10990,7 +11150,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11029,7 +11189,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11068,7 +11228,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11107,7 +11267,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11146,7 +11306,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11185,7 +11345,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11224,7 +11384,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11263,7 +11423,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11302,7 +11462,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11341,7 +11501,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11380,7 +11540,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11419,7 +11579,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11458,7 +11618,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11497,7 +11657,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11536,7 +11696,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11575,7 +11735,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11614,7 +11774,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11653,7 +11813,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11692,7 +11852,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11731,7 +11891,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11770,7 +11930,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11809,7 +11969,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11848,7 +12008,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11887,7 +12047,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11926,7 +12086,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11965,7 +12125,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12004,7 +12164,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12043,7 +12203,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12082,7 +12242,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12121,7 +12281,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12160,7 +12320,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12199,7 +12359,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12238,7 +12398,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12277,7 +12437,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12312,19 +12472,19 @@
         <v>40.03786484000037</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>106800</v>
+        <v>106200</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L333" t="n">
-        <v>1</v>
+        <v>1.01289077212806</v>
       </c>
       <c r="M333" t="inlineStr"/>
     </row>
@@ -12351,17 +12511,11 @@
         <v>37.28326484000037</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12390,17 +12544,11 @@
         <v>37.28326484000037</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12429,17 +12577,11 @@
         <v>39.08926484000037</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12468,17 +12610,11 @@
         <v>27.07736484000037</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12507,17 +12643,11 @@
         <v>45.51396484000037</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12546,17 +12676,11 @@
         <v>40.51396484000037</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12588,14 +12712,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12627,14 +12745,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12663,17 +12775,11 @@
         <v>61.38716484000037</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12702,17 +12808,11 @@
         <v>61.38716484000037</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12744,14 +12844,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12783,14 +12877,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12822,14 +12910,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12861,14 +12943,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12900,14 +12976,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12939,14 +13009,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12978,14 +13042,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13017,14 +13075,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13056,14 +13108,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13095,14 +13141,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13131,17 +13171,11 @@
         <v>68.31793607000039</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13173,14 +13207,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13209,17 +13237,11 @@
         <v>68.31793607000039</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13248,17 +13270,11 @@
         <v>68.31793607000039</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13287,17 +13303,11 @@
         <v>68.30383607000039</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13326,17 +13336,11 @@
         <v>68.30383607000039</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13365,17 +13369,11 @@
         <v>67.37333607000039</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13404,17 +13402,11 @@
         <v>64.17333607000039</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13446,14 +13438,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13482,17 +13468,11 @@
         <v>62.81993607000039</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13521,17 +13501,11 @@
         <v>63.05993607000039</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13560,17 +13534,11 @@
         <v>62.90683607000039</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13599,17 +13567,11 @@
         <v>67.9068360700004</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13638,17 +13600,11 @@
         <v>68.0063360700004</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13677,17 +13633,11 @@
         <v>65.8873360700004</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13716,17 +13666,11 @@
         <v>67.7883360700004</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13755,17 +13699,11 @@
         <v>34.0396360700004</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13797,14 +13735,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13833,17 +13765,11 @@
         <v>34.9606360700004</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13872,17 +13798,11 @@
         <v>35.3806360700004</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13914,14 +13834,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13953,14 +13867,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13992,14 +13900,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14031,14 +13933,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14070,14 +13966,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14109,14 +13999,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14148,14 +14032,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14187,14 +14065,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14226,14 +14098,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14265,14 +14131,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14304,14 +14164,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14343,14 +14197,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14382,14 +14230,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14421,14 +14263,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14460,14 +14296,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14499,14 +14329,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14538,14 +14362,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14577,14 +14395,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14616,14 +14428,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14655,14 +14461,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14694,14 +14494,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14733,14 +14527,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14772,14 +14560,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14811,14 +14593,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14850,14 +14626,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14889,14 +14659,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14928,14 +14692,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14967,14 +14725,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15006,14 +14758,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15045,14 +14791,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15084,14 +14824,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15123,14 +14857,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15162,14 +14890,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15201,14 +14923,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15240,14 +14956,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15279,14 +14989,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15318,14 +15022,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15357,14 +15055,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15396,14 +15088,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15435,14 +15121,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15474,14 +15154,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15513,14 +15187,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15552,14 +15220,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15591,14 +15253,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15630,14 +15286,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15669,14 +15319,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15708,14 +15352,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15747,14 +15385,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15786,20 +15418,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>106800</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
       <c r="M422" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BSV.xlsx
+++ b/BackTest/2019-10-19 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,7 +1012,7 @@
         <v>-166.20110878</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-209.29780878</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-241.78450878</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-242.09700878</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-158.95413734</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-159.27413734</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-158.9067373399999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-41.57993733999992</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-109.7608373399999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-137.6053373399999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-140.6053373399999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-137.5896373399999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-137.5896373399999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-111.6639373399999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-111.6639373399999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-111.6915362299999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-111.7015362299999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-111.3515362299999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-111.3790362299999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-108.1720362299999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-120.1839362299999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-119.3639362299999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-119.3639362299999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-132.1237362299999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-132.0134362299999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-132.2805362299999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-132.2805362299999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-135.1495362299999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-107.4584362299999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-107.4584362299999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-114.5406362299999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-122.7910362299999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-235.6940362299999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-235.6940362299999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-227.0564362299999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-236.1455362299999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-235.48553623</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-236.48553623</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-235.9955362299999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-235.9955362299999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-236.35553623</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-236.6087362299999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-257.62213623</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-257.62213623</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-257.83493623</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-257.48493623</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-257.48493623</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-257.56873623</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -5830,10 +5830,14 @@
         <v>-513.2550493099998</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>106100</v>
+      </c>
+      <c r="J165" t="n">
+        <v>106100</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
@@ -5863,11 +5867,19 @@
         <v>-513.2550493099998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>106200</v>
+      </c>
+      <c r="J166" t="n">
+        <v>106100</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5902,9 +5914,13 @@
         <v>106200</v>
       </c>
       <c r="J167" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+        <v>106100</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5939,11 +5955,11 @@
         <v>106200</v>
       </c>
       <c r="J168" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L168" t="n">
@@ -5980,11 +5996,11 @@
         <v>106300</v>
       </c>
       <c r="J169" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -6015,17 +6031,15 @@
         <v>-503.3160493099998</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>106400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -6056,13 +6070,11 @@
         <v>-553.3331493099997</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>106400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6097,13 +6109,11 @@
         <v>-549.1423493099998</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>106200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6144,7 +6154,7 @@
         <v>106300</v>
       </c>
       <c r="J173" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6185,7 +6195,7 @@
         <v>106400</v>
       </c>
       <c r="J174" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6226,7 +6236,7 @@
         <v>106300</v>
       </c>
       <c r="J175" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6267,7 +6277,7 @@
         <v>106500</v>
       </c>
       <c r="J176" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6308,7 +6318,7 @@
         <v>106400</v>
       </c>
       <c r="J177" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6343,11 +6353,13 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>106500</v>
+      </c>
       <c r="J178" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6388,7 +6400,7 @@
         <v>106500</v>
       </c>
       <c r="J179" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6423,13 +6435,11 @@
         <v>-548.7251493099997</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>106500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6470,7 +6480,7 @@
         <v>106500</v>
       </c>
       <c r="J181" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6505,13 +6515,11 @@
         <v>-549.1338493099996</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>106500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6552,7 +6560,7 @@
         <v>106400</v>
       </c>
       <c r="J183" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6587,13 +6595,11 @@
         <v>-435.6638576499996</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>106500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6632,7 +6638,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6671,7 +6677,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6706,11 +6712,13 @@
         <v>-457.1413576499996</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>106400</v>
+      </c>
       <c r="J187" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6749,7 +6757,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6788,7 +6796,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6823,13 +6831,11 @@
         <v>-535.9200576499996</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>106600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6864,11 +6870,13 @@
         <v>-536.2598576499996</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>106500</v>
+      </c>
       <c r="J191" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6903,13 +6911,11 @@
         <v>-535.2718576499996</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>106400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6944,13 +6950,11 @@
         <v>-555.2718576499996</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>106500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6991,7 +6995,7 @@
         <v>106400</v>
       </c>
       <c r="J194" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7032,7 +7036,7 @@
         <v>106600</v>
       </c>
       <c r="J195" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7067,13 +7071,11 @@
         <v>-546.6879576499996</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>106600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7114,7 +7116,7 @@
         <v>106500</v>
       </c>
       <c r="J197" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7149,13 +7151,11 @@
         <v>-521.5522576499997</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>106600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7190,13 +7190,11 @@
         <v>-521.1105576499997</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>106800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7235,7 +7233,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7274,7 +7272,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7309,13 +7307,11 @@
         <v>-577.5051576499997</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>106300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7356,7 +7352,7 @@
         <v>106200</v>
       </c>
       <c r="J203" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7397,7 +7393,7 @@
         <v>106100</v>
       </c>
       <c r="J204" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7438,7 +7434,7 @@
         <v>106400</v>
       </c>
       <c r="J205" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7473,13 +7469,11 @@
         <v>-578.2590576499996</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>106400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7520,7 +7514,7 @@
         <v>106400</v>
       </c>
       <c r="J207" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7561,7 +7555,7 @@
         <v>106100</v>
       </c>
       <c r="J208" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7602,7 +7596,7 @@
         <v>106400</v>
       </c>
       <c r="J209" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7643,7 +7637,7 @@
         <v>106300</v>
       </c>
       <c r="J210" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7684,7 +7678,7 @@
         <v>106400</v>
       </c>
       <c r="J211" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7719,13 +7713,11 @@
         <v>-529.3541576499996</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>106700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7760,13 +7752,11 @@
         <v>-528.4441576499996</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>106700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7801,13 +7791,11 @@
         <v>-528.4441576499996</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>106900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7842,13 +7830,11 @@
         <v>-528.4441576499996</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>106900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7887,7 +7873,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7926,7 +7912,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7965,7 +7951,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8004,7 +7990,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8043,7 +8029,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8082,7 +8068,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8121,7 +8107,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8156,19 +8142,19 @@
         <v>-398.3995576499997</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>106200</v>
+        <v>106100</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>1</v>
+        <v>1.009137606032045</v>
       </c>
       <c r="M223" t="inlineStr"/>
     </row>
@@ -8198,14 +8184,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8237,14 +8217,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8276,14 +8250,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8315,14 +8283,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8354,14 +8316,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8393,14 +8349,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8432,14 +8382,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8471,14 +8415,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8510,14 +8448,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8549,14 +8481,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8588,14 +8514,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8627,14 +8547,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8666,14 +8580,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8705,14 +8613,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8744,14 +8646,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8783,14 +8679,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8822,14 +8712,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8861,14 +8745,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8900,14 +8778,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8939,14 +8811,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8978,14 +8844,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9017,14 +8877,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9056,14 +8910,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9095,14 +8943,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9134,14 +8976,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9173,14 +9009,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9212,14 +9042,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9251,14 +9075,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9290,14 +9108,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9329,14 +9141,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9368,14 +9174,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9404,19 +9204,11 @@
         <v>-372.7597576499997</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>107800</v>
-      </c>
-      <c r="J255" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9445,19 +9237,11 @@
         <v>-373.2091576499997</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>107700</v>
-      </c>
-      <c r="J256" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9486,19 +9270,11 @@
         <v>-377.2120576499997</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>107500</v>
-      </c>
-      <c r="J257" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9527,19 +9303,11 @@
         <v>-376.9720576499997</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>107100</v>
-      </c>
-      <c r="J258" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9568,19 +9336,11 @@
         <v>-376.7320576499997</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>107400</v>
-      </c>
-      <c r="J259" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9609,19 +9369,11 @@
         <v>-377.2520576499997</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>107500</v>
-      </c>
-      <c r="J260" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9650,19 +9402,11 @@
         <v>-377.5720576499997</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>107400</v>
-      </c>
-      <c r="J261" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9691,19 +9435,11 @@
         <v>-387.5720576499997</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>107200</v>
-      </c>
-      <c r="J262" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9732,19 +9468,11 @@
         <v>-434.8152576499997</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>107100</v>
-      </c>
-      <c r="J263" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9773,19 +9501,11 @@
         <v>-514.0756576499997</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>106700</v>
-      </c>
-      <c r="J264" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9814,19 +9534,11 @@
         <v>-510.4656576499997</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>106600</v>
-      </c>
-      <c r="J265" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9855,19 +9567,11 @@
         <v>-510.4656576499997</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>106900</v>
-      </c>
-      <c r="J266" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9896,19 +9600,11 @@
         <v>-510.4656576499997</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>106900</v>
-      </c>
-      <c r="J267" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9940,14 +9636,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9979,14 +9669,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10018,14 +9702,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10057,14 +9735,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10096,14 +9768,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10135,14 +9801,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10174,14 +9834,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10213,14 +9867,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10252,14 +9900,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10291,14 +9933,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10330,14 +9966,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10369,14 +9999,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10408,14 +10032,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10447,14 +10065,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10486,14 +10098,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10525,14 +10131,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10564,14 +10164,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10603,14 +10197,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10642,14 +10230,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10681,14 +10263,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10720,14 +10296,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10759,14 +10329,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10798,14 +10362,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10837,14 +10395,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10876,14 +10428,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10915,14 +10461,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10954,14 +10494,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10993,14 +10527,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11032,14 +10560,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11071,14 +10593,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11110,14 +10626,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11149,14 +10659,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11188,14 +10692,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11227,14 +10725,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11266,14 +10758,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11305,14 +10791,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11344,14 +10824,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11383,14 +10857,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11422,14 +10890,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11461,14 +10923,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11500,14 +10956,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11539,14 +10989,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11578,14 +11022,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11617,14 +11055,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11656,14 +11088,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11695,14 +11121,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11734,14 +11154,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11773,14 +11187,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11812,14 +11220,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11851,14 +11253,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11890,14 +11286,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11929,14 +11319,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11968,14 +11352,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12007,14 +11385,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12046,14 +11418,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12085,14 +11451,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12124,14 +11484,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12163,14 +11517,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12202,14 +11550,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12241,14 +11583,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12280,14 +11616,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12319,14 +11649,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12358,14 +11682,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12397,14 +11715,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12436,14 +11748,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12472,19 +11778,13 @@
         <v>40.03786484000037</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>106200</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
-        <v>1.01289077212806</v>
+        <v>1</v>
       </c>
       <c r="M333" t="inlineStr"/>
     </row>
@@ -12511,7 +11811,7 @@
         <v>37.28326484000037</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12544,7 +11844,7 @@
         <v>37.28326484000037</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12577,7 +11877,7 @@
         <v>39.08926484000037</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12610,7 +11910,7 @@
         <v>27.07736484000037</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12643,7 +11943,7 @@
         <v>45.51396484000037</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12676,7 +11976,7 @@
         <v>40.51396484000037</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12775,7 +12075,7 @@
         <v>61.38716484000037</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12808,7 +12108,7 @@
         <v>61.38716484000037</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13171,7 +12471,7 @@
         <v>68.31793607000039</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13237,7 +12537,7 @@
         <v>68.31793607000039</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13270,7 +12570,7 @@
         <v>68.31793607000039</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13303,7 +12603,7 @@
         <v>68.30383607000039</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13336,7 +12636,7 @@
         <v>68.30383607000039</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13369,7 +12669,7 @@
         <v>67.37333607000039</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13402,7 +12702,7 @@
         <v>64.17333607000039</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13468,7 +12768,7 @@
         <v>62.81993607000039</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13501,7 +12801,7 @@
         <v>63.05993607000039</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13534,7 +12834,7 @@
         <v>62.90683607000039</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13567,7 +12867,7 @@
         <v>67.9068360700004</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13600,7 +12900,7 @@
         <v>68.0063360700004</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13633,7 +12933,7 @@
         <v>65.8873360700004</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13666,7 +12966,7 @@
         <v>67.7883360700004</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13699,7 +12999,7 @@
         <v>34.0396360700004</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13765,7 +13065,7 @@
         <v>34.9606360700004</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13798,7 +13098,7 @@
         <v>35.3806360700004</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -15415,7 +14715,7 @@
         <v>65.2151360700004</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15426,6 +14726,6 @@
       <c r="M422" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BSV.xlsx
+++ b/BackTest/2019-10-19 BackTest BSV.xlsx
@@ -1012,7 +1012,7 @@
         <v>-166.20110878</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-209.29780878</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-241.78450878</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-242.09700878</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-158.95413734</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-159.27413734</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-158.9067373399999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-41.57993733999992</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-110.3808373399999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-109.7608373399999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-137.6053373399999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-140.6053373399999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-137.5896373399999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-111.6639373399999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-111.6915362299999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-111.7015362299999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-111.3790362299999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-108.1720362299999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-120.1839362299999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-119.3639362299999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-119.3639362299999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-132.1237362299999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-132.0134362299999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-132.2805362299999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-132.2805362299999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-135.1495362299999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-107.4584362299999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-107.4584362299999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-114.5406362299999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-112.7910362299999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-122.7910362299999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-235.6940362299999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-235.6940362299999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-227.0564362299999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-236.1455362299999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -5830,14 +5830,10 @@
         <v>-513.2550493099998</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>106100</v>
-      </c>
-      <c r="J165" t="n">
-        <v>106100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
@@ -5867,1660 +5863,1370 @@
         <v>-513.2550493099998</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>106200</v>
       </c>
-      <c r="J166" t="n">
+      <c r="C167" t="n">
+        <v>106200</v>
+      </c>
+      <c r="D167" t="n">
+        <v>106200</v>
+      </c>
+      <c r="E167" t="n">
+        <v>106200</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17.8371</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-513.2550493099998</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>106300</v>
+      </c>
+      <c r="C168" t="n">
+        <v>106300</v>
+      </c>
+      <c r="D168" t="n">
+        <v>106300</v>
+      </c>
+      <c r="E168" t="n">
+        <v>106300</v>
+      </c>
+      <c r="F168" t="n">
+        <v>9.619</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-503.6360493099997</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C169" t="n">
+        <v>106400</v>
+      </c>
+      <c r="D169" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E169" t="n">
+        <v>106400</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-503.3160493099998</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C170" t="n">
+        <v>106400</v>
+      </c>
+      <c r="D170" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E170" t="n">
+        <v>106200</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18.9704</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-503.3160493099998</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>106300</v>
+      </c>
+      <c r="C171" t="n">
+        <v>106200</v>
+      </c>
+      <c r="D171" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E171" t="n">
+        <v>106200</v>
+      </c>
+      <c r="F171" t="n">
+        <v>50.0171</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-553.3331493099997</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C172" t="n">
+        <v>106300</v>
+      </c>
+      <c r="D172" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E172" t="n">
+        <v>106300</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4.1908</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-549.1423493099998</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>106300</v>
+      </c>
+      <c r="C173" t="n">
+        <v>106400</v>
+      </c>
+      <c r="D173" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E173" t="n">
+        <v>106300</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.5072</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-547.6351493099997</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>106300</v>
+      </c>
+      <c r="C174" t="n">
+        <v>106300</v>
+      </c>
+      <c r="D174" t="n">
+        <v>106300</v>
+      </c>
+      <c r="E174" t="n">
+        <v>106300</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-548.8051493099997</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C175" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D175" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E175" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-548.2251493099997</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C176" t="n">
+        <v>106400</v>
+      </c>
+      <c r="D176" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E176" t="n">
+        <v>106400</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-549.0451493099997</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C177" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D177" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E177" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-548.7251493099997</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C178" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D178" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E178" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-548.7251493099997</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C179" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D179" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E179" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-548.7251493099997</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C180" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D180" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E180" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-548.7251493099997</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C181" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D181" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E181" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-548.7251493099997</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C182" t="n">
+        <v>106400</v>
+      </c>
+      <c r="D182" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E182" t="n">
+        <v>106400</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.4087</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-549.1338493099996</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C183" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D183" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E183" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-548.6038493099996</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C184" t="n">
+        <v>106800</v>
+      </c>
+      <c r="D184" t="n">
+        <v>106800</v>
+      </c>
+      <c r="E184" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F184" t="n">
+        <v>112.93999166</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-435.6638576499996</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C185" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D185" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E185" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F185" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-440.7838576499996</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C186" t="n">
+        <v>106400</v>
+      </c>
+      <c r="D186" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E186" t="n">
+        <v>106400</v>
+      </c>
+      <c r="F186" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-458.6038576499996</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C187" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D187" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E187" t="n">
+        <v>106400</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.4625</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-457.1413576499996</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C188" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D188" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E188" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.1989</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-457.1413576499996</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C189" t="n">
+        <v>106600</v>
+      </c>
+      <c r="D189" t="n">
+        <v>106600</v>
+      </c>
+      <c r="E189" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F189" t="n">
+        <v>20.9405</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-436.2008576499996</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C190" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D190" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E190" t="n">
+        <v>106300</v>
+      </c>
+      <c r="F190" t="n">
+        <v>99.7192</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-535.9200576499996</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C191" t="n">
+        <v>106400</v>
+      </c>
+      <c r="D191" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E191" t="n">
+        <v>106400</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.3398</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-536.2598576499996</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C192" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D192" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E192" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-535.2718576499996</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C193" t="n">
+        <v>106400</v>
+      </c>
+      <c r="D193" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E193" t="n">
+        <v>106400</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-555.2718576499996</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>106300</v>
+      </c>
+      <c r="C194" t="n">
+        <v>106600</v>
+      </c>
+      <c r="D194" t="n">
+        <v>106600</v>
+      </c>
+      <c r="E194" t="n">
+        <v>106300</v>
+      </c>
+      <c r="F194" t="n">
+        <v>8.5884</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-546.6834576499996</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>106600</v>
+      </c>
+      <c r="C195" t="n">
+        <v>106600</v>
+      </c>
+      <c r="D195" t="n">
+        <v>106600</v>
+      </c>
+      <c r="E195" t="n">
+        <v>106600</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.9367</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-546.6834576499996</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>106500</v>
+      </c>
+      <c r="C196" t="n">
+        <v>106500</v>
+      </c>
+      <c r="D196" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E196" t="n">
+        <v>106500</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-546.6879576499996</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>106600</v>
+      </c>
+      <c r="C197" t="n">
+        <v>106600</v>
+      </c>
+      <c r="D197" t="n">
+        <v>106600</v>
+      </c>
+      <c r="E197" t="n">
+        <v>106600</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-546.6827576499996</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>106800</v>
+      </c>
+      <c r="C198" t="n">
+        <v>106800</v>
+      </c>
+      <c r="D198" t="n">
+        <v>106800</v>
+      </c>
+      <c r="E198" t="n">
+        <v>106800</v>
+      </c>
+      <c r="F198" t="n">
+        <v>25.1305</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-521.5522576499997</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>106900</v>
+      </c>
+      <c r="C199" t="n">
+        <v>106900</v>
+      </c>
+      <c r="D199" t="n">
+        <v>106900</v>
+      </c>
+      <c r="E199" t="n">
+        <v>106900</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.4417</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-521.1105576499997</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>106800</v>
+      </c>
+      <c r="C200" t="n">
+        <v>106700</v>
+      </c>
+      <c r="D200" t="n">
+        <v>106800</v>
+      </c>
+      <c r="E200" t="n">
+        <v>106700</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2.5509</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-523.6614576499996</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C201" t="n">
+        <v>106300</v>
+      </c>
+      <c r="D201" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E201" t="n">
+        <v>106300</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3.8497</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-527.5111576499996</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>106300</v>
+      </c>
+      <c r="C202" t="n">
+        <v>106200</v>
+      </c>
+      <c r="D202" t="n">
+        <v>106300</v>
+      </c>
+      <c r="E202" t="n">
+        <v>106200</v>
+      </c>
+      <c r="F202" t="n">
+        <v>49.994</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-577.5051576499997</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
         <v>106100</v>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="C203" t="n">
+        <v>106100</v>
+      </c>
+      <c r="D203" t="n">
+        <v>106100</v>
+      </c>
+      <c r="E203" t="n">
+        <v>106100</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.8045</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-578.3096576499996</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C204" t="n">
+        <v>106400</v>
+      </c>
+      <c r="D204" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E204" t="n">
+        <v>106400</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-578.2590576499996</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C205" t="n">
+        <v>106400</v>
+      </c>
+      <c r="D205" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E205" t="n">
+        <v>106400</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.1689</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-578.2590576499996</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>106400</v>
+      </c>
+      <c r="C206" t="n">
+        <v>106400</v>
+      </c>
+      <c r="D206" t="n">
+        <v>106400</v>
+      </c>
+      <c r="E206" t="n">
+        <v>106400</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-578.2590576499996</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>106200</v>
+      </c>
+      <c r="C207" t="n">
+        <v>106100</v>
+      </c>
+      <c r="D207" t="n">
+        <v>106200</v>
+      </c>
+      <c r="E207" t="n">
+        <v>106100</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21.6177</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-599.8767576499996</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>106400</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>106200</v>
-      </c>
-      <c r="C167" t="n">
-        <v>106200</v>
-      </c>
-      <c r="D167" t="n">
-        <v>106200</v>
-      </c>
-      <c r="E167" t="n">
-        <v>106200</v>
-      </c>
-      <c r="F167" t="n">
-        <v>17.8371</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-513.2550493099998</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>106200</v>
-      </c>
-      <c r="J167" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>106300</v>
-      </c>
-      <c r="C168" t="n">
-        <v>106300</v>
-      </c>
-      <c r="D168" t="n">
-        <v>106300</v>
-      </c>
-      <c r="E168" t="n">
-        <v>106300</v>
-      </c>
-      <c r="F168" t="n">
-        <v>9.619</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-503.6360493099997</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>106200</v>
-      </c>
-      <c r="J168" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C169" t="n">
-        <v>106400</v>
-      </c>
-      <c r="D169" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E169" t="n">
-        <v>106400</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-503.3160493099998</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>106300</v>
-      </c>
-      <c r="J169" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C170" t="n">
-        <v>106400</v>
-      </c>
-      <c r="D170" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E170" t="n">
-        <v>106200</v>
-      </c>
-      <c r="F170" t="n">
-        <v>18.9704</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-503.3160493099998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>106300</v>
-      </c>
-      <c r="C171" t="n">
-        <v>106200</v>
-      </c>
-      <c r="D171" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E171" t="n">
-        <v>106200</v>
-      </c>
-      <c r="F171" t="n">
-        <v>50.0171</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-553.3331493099997</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C172" t="n">
-        <v>106300</v>
-      </c>
-      <c r="D172" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E172" t="n">
-        <v>106300</v>
-      </c>
-      <c r="F172" t="n">
-        <v>4.1908</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-549.1423493099998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>106300</v>
-      </c>
-      <c r="C173" t="n">
-        <v>106400</v>
-      </c>
-      <c r="D173" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E173" t="n">
-        <v>106300</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1.5072</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-547.6351493099997</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>106300</v>
-      </c>
-      <c r="J173" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>106300</v>
-      </c>
-      <c r="C174" t="n">
-        <v>106300</v>
-      </c>
-      <c r="D174" t="n">
-        <v>106300</v>
-      </c>
-      <c r="E174" t="n">
-        <v>106300</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-548.8051493099997</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>106400</v>
-      </c>
-      <c r="J174" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C175" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D175" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E175" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-548.2251493099997</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>106300</v>
-      </c>
-      <c r="J175" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C176" t="n">
-        <v>106400</v>
-      </c>
-      <c r="D176" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E176" t="n">
-        <v>106400</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-549.0451493099997</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>106500</v>
-      </c>
-      <c r="J176" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C177" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D177" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E177" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-548.7251493099997</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>106400</v>
-      </c>
-      <c r="J177" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C178" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D178" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E178" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-548.7251493099997</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>106500</v>
-      </c>
-      <c r="J178" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C179" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D179" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E179" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-548.7251493099997</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>106500</v>
-      </c>
-      <c r="J179" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C180" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D180" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E180" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F180" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-548.7251493099997</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C181" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D181" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E181" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-548.7251493099997</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>106500</v>
-      </c>
-      <c r="J181" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C182" t="n">
-        <v>106400</v>
-      </c>
-      <c r="D182" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E182" t="n">
-        <v>106400</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.4087</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-549.1338493099996</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C183" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D183" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E183" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-548.6038493099996</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>106400</v>
-      </c>
-      <c r="J183" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C184" t="n">
-        <v>106800</v>
-      </c>
-      <c r="D184" t="n">
-        <v>106800</v>
-      </c>
-      <c r="E184" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F184" t="n">
-        <v>112.93999166</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-435.6638576499996</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C185" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D185" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E185" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F185" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-440.7838576499996</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C186" t="n">
-        <v>106400</v>
-      </c>
-      <c r="D186" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E186" t="n">
-        <v>106400</v>
-      </c>
-      <c r="F186" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-458.6038576499996</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C187" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D187" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E187" t="n">
-        <v>106400</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1.4625</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-457.1413576499996</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>106400</v>
-      </c>
-      <c r="J187" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C188" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D188" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E188" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2.1989</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-457.1413576499996</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C189" t="n">
-        <v>106600</v>
-      </c>
-      <c r="D189" t="n">
-        <v>106600</v>
-      </c>
-      <c r="E189" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F189" t="n">
-        <v>20.9405</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-436.2008576499996</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C190" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D190" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E190" t="n">
-        <v>106300</v>
-      </c>
-      <c r="F190" t="n">
-        <v>99.7192</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-535.9200576499996</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C191" t="n">
-        <v>106400</v>
-      </c>
-      <c r="D191" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E191" t="n">
-        <v>106400</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.3398</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-536.2598576499996</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>106500</v>
-      </c>
-      <c r="J191" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C192" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D192" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E192" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.988</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-535.2718576499996</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C193" t="n">
-        <v>106400</v>
-      </c>
-      <c r="D193" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E193" t="n">
-        <v>106400</v>
-      </c>
-      <c r="F193" t="n">
-        <v>20</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-555.2718576499996</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>106300</v>
-      </c>
-      <c r="C194" t="n">
-        <v>106600</v>
-      </c>
-      <c r="D194" t="n">
-        <v>106600</v>
-      </c>
-      <c r="E194" t="n">
-        <v>106300</v>
-      </c>
-      <c r="F194" t="n">
-        <v>8.5884</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-546.6834576499996</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>106400</v>
-      </c>
-      <c r="J194" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>106600</v>
-      </c>
-      <c r="C195" t="n">
-        <v>106600</v>
-      </c>
-      <c r="D195" t="n">
-        <v>106600</v>
-      </c>
-      <c r="E195" t="n">
-        <v>106600</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.9367</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-546.6834576499996</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>106600</v>
-      </c>
-      <c r="J195" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>106500</v>
-      </c>
-      <c r="C196" t="n">
-        <v>106500</v>
-      </c>
-      <c r="D196" t="n">
-        <v>106500</v>
-      </c>
-      <c r="E196" t="n">
-        <v>106500</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-546.6879576499996</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>106600</v>
-      </c>
-      <c r="C197" t="n">
-        <v>106600</v>
-      </c>
-      <c r="D197" t="n">
-        <v>106600</v>
-      </c>
-      <c r="E197" t="n">
-        <v>106600</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.0052</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-546.6827576499996</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>106500</v>
-      </c>
-      <c r="J197" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>106800</v>
-      </c>
-      <c r="C198" t="n">
-        <v>106800</v>
-      </c>
-      <c r="D198" t="n">
-        <v>106800</v>
-      </c>
-      <c r="E198" t="n">
-        <v>106800</v>
-      </c>
-      <c r="F198" t="n">
-        <v>25.1305</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-521.5522576499997</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>106900</v>
-      </c>
-      <c r="C199" t="n">
-        <v>106900</v>
-      </c>
-      <c r="D199" t="n">
-        <v>106900</v>
-      </c>
-      <c r="E199" t="n">
-        <v>106900</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.4417</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-521.1105576499997</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>106800</v>
-      </c>
-      <c r="C200" t="n">
-        <v>106700</v>
-      </c>
-      <c r="D200" t="n">
-        <v>106800</v>
-      </c>
-      <c r="E200" t="n">
-        <v>106700</v>
-      </c>
-      <c r="F200" t="n">
-        <v>2.5509</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-523.6614576499996</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C201" t="n">
-        <v>106300</v>
-      </c>
-      <c r="D201" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E201" t="n">
-        <v>106300</v>
-      </c>
-      <c r="F201" t="n">
-        <v>3.8497</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-527.5111576499996</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>106300</v>
-      </c>
-      <c r="C202" t="n">
-        <v>106200</v>
-      </c>
-      <c r="D202" t="n">
-        <v>106300</v>
-      </c>
-      <c r="E202" t="n">
-        <v>106200</v>
-      </c>
-      <c r="F202" t="n">
-        <v>49.994</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-577.5051576499997</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>106100</v>
-      </c>
-      <c r="C203" t="n">
-        <v>106100</v>
-      </c>
-      <c r="D203" t="n">
-        <v>106100</v>
-      </c>
-      <c r="E203" t="n">
-        <v>106100</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.8045</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-578.3096576499996</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>106200</v>
-      </c>
-      <c r="J203" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C204" t="n">
-        <v>106400</v>
-      </c>
-      <c r="D204" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E204" t="n">
-        <v>106400</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.0506</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-578.2590576499996</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>106100</v>
-      </c>
-      <c r="J204" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C205" t="n">
-        <v>106400</v>
-      </c>
-      <c r="D205" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E205" t="n">
-        <v>106400</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0.1689</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-578.2590576499996</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>106400</v>
-      </c>
-      <c r="J205" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>106400</v>
-      </c>
-      <c r="C206" t="n">
-        <v>106400</v>
-      </c>
-      <c r="D206" t="n">
-        <v>106400</v>
-      </c>
-      <c r="E206" t="n">
-        <v>106400</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-578.2590576499996</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>106200</v>
-      </c>
-      <c r="C207" t="n">
-        <v>106100</v>
-      </c>
-      <c r="D207" t="n">
-        <v>106200</v>
-      </c>
-      <c r="E207" t="n">
-        <v>106100</v>
-      </c>
-      <c r="F207" t="n">
-        <v>21.6177</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-599.8767576499996</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>106400</v>
-      </c>
-      <c r="J207" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7554,9 +7260,7 @@
       <c r="I208" t="n">
         <v>106100</v>
       </c>
-      <c r="J208" t="n">
-        <v>106100</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7595,9 +7299,7 @@
       <c r="I209" t="n">
         <v>106400</v>
       </c>
-      <c r="J209" t="n">
-        <v>106100</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7636,9 +7338,7 @@
       <c r="I210" t="n">
         <v>106300</v>
       </c>
-      <c r="J210" t="n">
-        <v>106100</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7677,9 +7377,7 @@
       <c r="I211" t="n">
         <v>106400</v>
       </c>
-      <c r="J211" t="n">
-        <v>106100</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7713,12 +7411,12 @@
         <v>-529.3541576499996</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>106100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>106700</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7755,9 +7453,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>106100</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7791,12 +7487,12 @@
         <v>-528.4441576499996</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>106100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>106900</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7830,12 +7526,12 @@
         <v>-528.4441576499996</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>106100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>106900</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7869,12 +7565,12 @@
         <v>-527.4441576499996</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>106100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>106900</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7908,12 +7604,12 @@
         <v>-527.4431576499996</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>106100</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>107100</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7950,9 +7646,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>106100</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7989,9 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>106100</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8028,9 +7720,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>106100</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8067,9 +7757,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>106100</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8106,9 +7794,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>106100</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,647 +7828,719 @@
         <v>-398.3995576499997</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>107600</v>
+      </c>
+      <c r="C224" t="n">
+        <v>107600</v>
+      </c>
+      <c r="D224" t="n">
+        <v>107600</v>
+      </c>
+      <c r="E224" t="n">
+        <v>107600</v>
+      </c>
+      <c r="F224" t="n">
+        <v>4.0893</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-398.3995576499997</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>107500</v>
+      </c>
+      <c r="C225" t="n">
+        <v>107500</v>
+      </c>
+      <c r="D225" t="n">
+        <v>107500</v>
+      </c>
+      <c r="E225" t="n">
+        <v>107500</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.6119</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-399.0114576499997</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>107600</v>
+      </c>
+      <c r="C226" t="n">
+        <v>107600</v>
+      </c>
+      <c r="D226" t="n">
+        <v>107600</v>
+      </c>
+      <c r="E226" t="n">
+        <v>107600</v>
+      </c>
+      <c r="F226" t="n">
+        <v>3.3186</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-395.6928576499997</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>107500</v>
+      </c>
+      <c r="C227" t="n">
+        <v>107500</v>
+      </c>
+      <c r="D227" t="n">
+        <v>107500</v>
+      </c>
+      <c r="E227" t="n">
+        <v>107500</v>
+      </c>
+      <c r="F227" t="n">
+        <v>21.6718</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-417.3646576499997</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>107500</v>
+      </c>
+      <c r="C228" t="n">
+        <v>107500</v>
+      </c>
+      <c r="D228" t="n">
+        <v>107500</v>
+      </c>
+      <c r="E228" t="n">
+        <v>107500</v>
+      </c>
+      <c r="F228" t="n">
+        <v>6.096</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-417.3646576499997</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>107500</v>
+      </c>
+      <c r="C229" t="n">
+        <v>107500</v>
+      </c>
+      <c r="D229" t="n">
+        <v>107500</v>
+      </c>
+      <c r="E229" t="n">
+        <v>107500</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-417.3646576499997</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>107500</v>
+      </c>
+      <c r="C230" t="n">
+        <v>107500</v>
+      </c>
+      <c r="D230" t="n">
+        <v>107500</v>
+      </c>
+      <c r="E230" t="n">
+        <v>107500</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-417.3646576499997</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>107500</v>
+      </c>
+      <c r="C231" t="n">
+        <v>107500</v>
+      </c>
+      <c r="D231" t="n">
+        <v>107500</v>
+      </c>
+      <c r="E231" t="n">
+        <v>107500</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.1638</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-417.3646576499997</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>107600</v>
+      </c>
+      <c r="C232" t="n">
+        <v>107600</v>
+      </c>
+      <c r="D232" t="n">
+        <v>107600</v>
+      </c>
+      <c r="E232" t="n">
+        <v>107600</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.0683</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-417.2963576499997</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>107800</v>
+      </c>
+      <c r="C233" t="n">
+        <v>107800</v>
+      </c>
+      <c r="D233" t="n">
+        <v>107800</v>
+      </c>
+      <c r="E233" t="n">
+        <v>107800</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.7141</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-416.5822576499997</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>107900</v>
+      </c>
+      <c r="C234" t="n">
+        <v>108000</v>
+      </c>
+      <c r="D234" t="n">
+        <v>108000</v>
+      </c>
+      <c r="E234" t="n">
+        <v>107900</v>
+      </c>
+      <c r="F234" t="n">
+        <v>49.63</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-366.9522576499997</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>108000</v>
+      </c>
+      <c r="C235" t="n">
+        <v>108200</v>
+      </c>
+      <c r="D235" t="n">
+        <v>108200</v>
+      </c>
+      <c r="E235" t="n">
+        <v>108000</v>
+      </c>
+      <c r="F235" t="n">
+        <v>60.9439</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-306.0083576499997</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>108100</v>
+      </c>
+      <c r="C236" t="n">
+        <v>108000</v>
+      </c>
+      <c r="D236" t="n">
+        <v>108100</v>
+      </c>
+      <c r="E236" t="n">
+        <v>108000</v>
+      </c>
+      <c r="F236" t="n">
+        <v>20</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-326.0083576499997</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>108000</v>
+      </c>
+      <c r="C237" t="n">
+        <v>108000</v>
+      </c>
+      <c r="D237" t="n">
+        <v>108100</v>
+      </c>
+      <c r="E237" t="n">
+        <v>108000</v>
+      </c>
+      <c r="F237" t="n">
+        <v>29.7395</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-326.0083576499997</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>108400</v>
+      </c>
+      <c r="C238" t="n">
+        <v>108400</v>
+      </c>
+      <c r="D238" t="n">
+        <v>108400</v>
+      </c>
+      <c r="E238" t="n">
+        <v>108400</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2.283</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-323.7253576499997</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>108400</v>
+      </c>
+      <c r="C239" t="n">
+        <v>108400</v>
+      </c>
+      <c r="D239" t="n">
+        <v>108400</v>
+      </c>
+      <c r="E239" t="n">
+        <v>108400</v>
+      </c>
+      <c r="F239" t="n">
+        <v>4.009</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-323.7253576499997</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>108400</v>
+      </c>
+      <c r="C240" t="n">
+        <v>109000</v>
+      </c>
+      <c r="D240" t="n">
+        <v>109000</v>
+      </c>
+      <c r="E240" t="n">
+        <v>108400</v>
+      </c>
+      <c r="F240" t="n">
+        <v>70.8784</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-252.8469576499997</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>109100</v>
+      </c>
+      <c r="C241" t="n">
+        <v>108700</v>
+      </c>
+      <c r="D241" t="n">
+        <v>109100</v>
+      </c>
+      <c r="E241" t="n">
+        <v>108500</v>
+      </c>
+      <c r="F241" t="n">
+        <v>42.1929</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-295.0398576499997</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>108600</v>
+      </c>
+      <c r="C242" t="n">
+        <v>108600</v>
+      </c>
+      <c r="D242" t="n">
+        <v>108600</v>
+      </c>
+      <c r="E242" t="n">
+        <v>108600</v>
+      </c>
+      <c r="F242" t="n">
+        <v>22.3973</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-317.4371576499997</v>
+      </c>
+      <c r="H242" t="n">
         <v>2</v>
       </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>106100</v>
-      </c>
-      <c r="K223" t="inlineStr">
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L223" t="n">
-        <v>1.009137606032045</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>107600</v>
-      </c>
-      <c r="C224" t="n">
-        <v>107600</v>
-      </c>
-      <c r="D224" t="n">
-        <v>107600</v>
-      </c>
-      <c r="E224" t="n">
-        <v>107600</v>
-      </c>
-      <c r="F224" t="n">
-        <v>4.0893</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-398.3995576499997</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>107500</v>
-      </c>
-      <c r="C225" t="n">
-        <v>107500</v>
-      </c>
-      <c r="D225" t="n">
-        <v>107500</v>
-      </c>
-      <c r="E225" t="n">
-        <v>107500</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.6119</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-399.0114576499997</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>107600</v>
-      </c>
-      <c r="C226" t="n">
-        <v>107600</v>
-      </c>
-      <c r="D226" t="n">
-        <v>107600</v>
-      </c>
-      <c r="E226" t="n">
-        <v>107600</v>
-      </c>
-      <c r="F226" t="n">
-        <v>3.3186</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-395.6928576499997</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>107500</v>
-      </c>
-      <c r="C227" t="n">
-        <v>107500</v>
-      </c>
-      <c r="D227" t="n">
-        <v>107500</v>
-      </c>
-      <c r="E227" t="n">
-        <v>107500</v>
-      </c>
-      <c r="F227" t="n">
-        <v>21.6718</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-417.3646576499997</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>107500</v>
-      </c>
-      <c r="C228" t="n">
-        <v>107500</v>
-      </c>
-      <c r="D228" t="n">
-        <v>107500</v>
-      </c>
-      <c r="E228" t="n">
-        <v>107500</v>
-      </c>
-      <c r="F228" t="n">
-        <v>6.096</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-417.3646576499997</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>107500</v>
-      </c>
-      <c r="C229" t="n">
-        <v>107500</v>
-      </c>
-      <c r="D229" t="n">
-        <v>107500</v>
-      </c>
-      <c r="E229" t="n">
-        <v>107500</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-417.3646576499997</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>107500</v>
-      </c>
-      <c r="C230" t="n">
-        <v>107500</v>
-      </c>
-      <c r="D230" t="n">
-        <v>107500</v>
-      </c>
-      <c r="E230" t="n">
-        <v>107500</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-417.3646576499997</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>107500</v>
-      </c>
-      <c r="C231" t="n">
-        <v>107500</v>
-      </c>
-      <c r="D231" t="n">
-        <v>107500</v>
-      </c>
-      <c r="E231" t="n">
-        <v>107500</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0.1638</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-417.3646576499997</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>107600</v>
-      </c>
-      <c r="C232" t="n">
-        <v>107600</v>
-      </c>
-      <c r="D232" t="n">
-        <v>107600</v>
-      </c>
-      <c r="E232" t="n">
-        <v>107600</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0.0683</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-417.2963576499997</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>107800</v>
-      </c>
-      <c r="C233" t="n">
-        <v>107800</v>
-      </c>
-      <c r="D233" t="n">
-        <v>107800</v>
-      </c>
-      <c r="E233" t="n">
-        <v>107800</v>
-      </c>
-      <c r="F233" t="n">
-        <v>0.7141</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-416.5822576499997</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>107900</v>
-      </c>
-      <c r="C234" t="n">
-        <v>108000</v>
-      </c>
-      <c r="D234" t="n">
-        <v>108000</v>
-      </c>
-      <c r="E234" t="n">
-        <v>107900</v>
-      </c>
-      <c r="F234" t="n">
-        <v>49.63</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-366.9522576499997</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>108000</v>
-      </c>
-      <c r="C235" t="n">
-        <v>108200</v>
-      </c>
-      <c r="D235" t="n">
-        <v>108200</v>
-      </c>
-      <c r="E235" t="n">
-        <v>108000</v>
-      </c>
-      <c r="F235" t="n">
-        <v>60.9439</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-306.0083576499997</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>108100</v>
-      </c>
-      <c r="C236" t="n">
-        <v>108000</v>
-      </c>
-      <c r="D236" t="n">
-        <v>108100</v>
-      </c>
-      <c r="E236" t="n">
-        <v>108000</v>
-      </c>
-      <c r="F236" t="n">
-        <v>20</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-326.0083576499997</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>108000</v>
-      </c>
-      <c r="C237" t="n">
-        <v>108000</v>
-      </c>
-      <c r="D237" t="n">
-        <v>108100</v>
-      </c>
-      <c r="E237" t="n">
-        <v>108000</v>
-      </c>
-      <c r="F237" t="n">
-        <v>29.7395</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-326.0083576499997</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>108400</v>
-      </c>
-      <c r="C238" t="n">
-        <v>108400</v>
-      </c>
-      <c r="D238" t="n">
-        <v>108400</v>
-      </c>
-      <c r="E238" t="n">
-        <v>108400</v>
-      </c>
-      <c r="F238" t="n">
-        <v>2.283</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-323.7253576499997</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>108400</v>
-      </c>
-      <c r="C239" t="n">
-        <v>108400</v>
-      </c>
-      <c r="D239" t="n">
-        <v>108400</v>
-      </c>
-      <c r="E239" t="n">
-        <v>108400</v>
-      </c>
-      <c r="F239" t="n">
-        <v>4.009</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-323.7253576499997</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>108400</v>
-      </c>
-      <c r="C240" t="n">
-        <v>109000</v>
-      </c>
-      <c r="D240" t="n">
-        <v>109000</v>
-      </c>
-      <c r="E240" t="n">
-        <v>108400</v>
-      </c>
-      <c r="F240" t="n">
-        <v>70.8784</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-252.8469576499997</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>109100</v>
-      </c>
-      <c r="C241" t="n">
-        <v>108700</v>
-      </c>
-      <c r="D241" t="n">
-        <v>109100</v>
-      </c>
-      <c r="E241" t="n">
-        <v>108500</v>
-      </c>
-      <c r="F241" t="n">
-        <v>42.1929</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-295.0398576499997</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>108600</v>
-      </c>
-      <c r="C242" t="n">
-        <v>108600</v>
-      </c>
-      <c r="D242" t="n">
-        <v>108600</v>
-      </c>
-      <c r="E242" t="n">
-        <v>108600</v>
-      </c>
-      <c r="F242" t="n">
-        <v>22.3973</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-317.4371576499997</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
@@ -9435,7 +9193,7 @@
         <v>-387.5720576499997</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9468,7 +9226,7 @@
         <v>-434.8152576499997</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9501,7 +9259,7 @@
         <v>-514.0756576499997</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9534,7 +9292,7 @@
         <v>-510.4656576499997</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -14715,7 +14473,7 @@
         <v>65.2151360700004</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
